--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2738391.494701984</v>
+        <v>2737718.884913892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299991.0270026278</v>
+        <v>299991.0270026276</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058529</v>
+        <v>632041.4518058551</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>105.6600024188791</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>128.0303502936702</v>
       </c>
       <c r="I11" t="n">
-        <v>46.33963575784566</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.98422276146258</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.09351735243531</v>
       </c>
       <c r="U11" t="n">
-        <v>55.8156218941476</v>
+        <v>55.81562189414756</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>126.5455610568187</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="X11" t="n">
-        <v>128.0303502936702</v>
+        <v>30.34478252893316</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,76 +1446,76 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.274367503314942</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.574217440194262</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
+        <v>20.61791029543264</v>
+      </c>
+      <c r="U12" t="n">
+        <v>89.50808854007957</v>
+      </c>
+      <c r="V12" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>20.61791029543266</v>
-      </c>
-      <c r="U12" t="n">
-        <v>42.89354024013105</v>
-      </c>
-      <c r="V12" t="n">
-        <v>46.31469836306891</v>
-      </c>
       <c r="W12" t="n">
-        <v>72.37036102467826</v>
+        <v>72.37036102467823</v>
       </c>
       <c r="X12" t="n">
-        <v>22.97869188713727</v>
+        <v>22.97869188713724</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.05006358169229</v>
+        <v>29.05006358169226</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.92000333694468</v>
+        <v>8.920003336944657</v>
       </c>
       <c r="S13" t="n">
-        <v>41.0357092975503</v>
+        <v>41.03570929755027</v>
       </c>
       <c r="T13" t="n">
-        <v>29.4106364286837</v>
+        <v>29.41063642868367</v>
       </c>
       <c r="U13" t="n">
-        <v>94.32212123151773</v>
+        <v>94.3221212315177</v>
       </c>
       <c r="V13" t="n">
-        <v>50.77479263211657</v>
+        <v>50.77479263211654</v>
       </c>
       <c r="W13" t="n">
-        <v>95.97648453700199</v>
+        <v>95.97648453700197</v>
       </c>
       <c r="X13" t="n">
-        <v>27.5852328559092</v>
+        <v>27.58523285590917</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.80705026183509</v>
+        <v>22.80705026183506</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>128.0303502936702</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>77.56648506644366</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>128.0303502936702</v>
+        <v>23.96928788305434</v>
       </c>
       <c r="I14" t="n">
-        <v>46.33963575784565</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.98422276146257</v>
+        <v>32.98422276146258</v>
       </c>
       <c r="T14" t="n">
-        <v>28.09351735243533</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>55.81562189414759</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>99.56248876030519</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,52 +1692,52 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>128.0303502936702</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>52.03472238375154</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20.61791029543266</v>
       </c>
       <c r="U15" t="n">
         <v>42.89354024013105</v>
@@ -1746,10 +1746,10 @@
         <v>46.31469836306891</v>
       </c>
       <c r="W15" t="n">
-        <v>72.37036102467826</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="X15" t="n">
-        <v>105.5485372372502</v>
+        <v>22.97869188713727</v>
       </c>
       <c r="Y15" t="n">
         <v>29.05006358169229</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.920003336944678</v>
+        <v>8.92000333694468</v>
       </c>
       <c r="S16" t="n">
-        <v>41.03570929755029</v>
+        <v>41.0357092975503</v>
       </c>
       <c r="T16" t="n">
         <v>29.4106364286837</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.31551033015865</v>
+        <v>55.3155103301587</v>
       </c>
       <c r="C17" t="n">
-        <v>31.43376733350414</v>
+        <v>31.43376733350419</v>
       </c>
       <c r="D17" t="n">
-        <v>19.0004295945526</v>
+        <v>19.00042959455266</v>
       </c>
       <c r="E17" t="n">
-        <v>52.70718201396147</v>
+        <v>52.70718201396153</v>
       </c>
       <c r="F17" t="n">
-        <v>84.4275195923388</v>
+        <v>84.42751959233885</v>
       </c>
       <c r="G17" t="n">
-        <v>100.0577298378635</v>
+        <v>100.0577298378636</v>
       </c>
       <c r="H17" t="n">
-        <v>28.16043575991944</v>
+        <v>28.16043575991949</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.108053561477334</v>
+        <v>2.108053561477391</v>
       </c>
       <c r="W17" t="n">
-        <v>19.12473377809221</v>
+        <v>19.12473377809226</v>
       </c>
       <c r="X17" t="n">
-        <v>41.01098424703144</v>
+        <v>41.0109842470315</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.51383737077521</v>
+        <v>63.51383737077526</v>
       </c>
     </row>
     <row r="18">
@@ -1920,64 +1920,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>112.7691325386646</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>112.7691325386646</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>128.0303502936702</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.31551033015865</v>
+        <v>55.3155103301587</v>
       </c>
       <c r="C20" t="n">
-        <v>31.43376733350414</v>
+        <v>31.43376733350419</v>
       </c>
       <c r="D20" t="n">
-        <v>19.0004295945526</v>
+        <v>19.00042959455266</v>
       </c>
       <c r="E20" t="n">
-        <v>52.70718201396147</v>
+        <v>52.70718201396153</v>
       </c>
       <c r="F20" t="n">
-        <v>84.4275195923388</v>
+        <v>84.42751959233885</v>
       </c>
       <c r="G20" t="n">
-        <v>100.0577298378635</v>
+        <v>100.0577298378636</v>
       </c>
       <c r="H20" t="n">
-        <v>28.16043575991944</v>
+        <v>28.16043575991949</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.108053561477334</v>
+        <v>2.108053561477391</v>
       </c>
       <c r="W20" t="n">
-        <v>19.12473377809221</v>
+        <v>19.12473377809226</v>
       </c>
       <c r="X20" t="n">
-        <v>41.01098424703144</v>
+        <v>41.0109842470315</v>
       </c>
       <c r="Y20" t="n">
-        <v>63.51383737077521</v>
+        <v>63.51383737077526</v>
       </c>
     </row>
     <row r="21">
@@ -2160,70 +2160,70 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>112.7691325386646</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="E21" t="n">
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>128.0303502936702</v>
       </c>
-      <c r="F21" t="n">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>128.0303502936702</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.31551033015865</v>
+        <v>55.3155103301587</v>
       </c>
       <c r="C23" t="n">
-        <v>31.43376733350414</v>
+        <v>31.43376733350419</v>
       </c>
       <c r="D23" t="n">
-        <v>19.0004295945526</v>
+        <v>19.00042959455266</v>
       </c>
       <c r="E23" t="n">
-        <v>52.70718201396147</v>
+        <v>52.70718201396153</v>
       </c>
       <c r="F23" t="n">
-        <v>84.4275195923388</v>
+        <v>84.42751959233885</v>
       </c>
       <c r="G23" t="n">
-        <v>100.0577298378635</v>
+        <v>100.0577298378636</v>
       </c>
       <c r="H23" t="n">
-        <v>28.16043575991944</v>
+        <v>28.16043575991949</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.108053561477334</v>
+        <v>2.108053561477391</v>
       </c>
       <c r="W23" t="n">
-        <v>19.12473377809221</v>
+        <v>19.12473377809226</v>
       </c>
       <c r="X23" t="n">
-        <v>41.01098424703144</v>
+        <v>41.0109842470315</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.51383737077521</v>
+        <v>63.51383737077526</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>112.7691325386646</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>128.0303502936702</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="V24" t="n">
-        <v>128.0303502936702</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>112.7691325386646</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>137.1816311500562</v>
       </c>
       <c r="D26" t="n">
-        <v>124.7482934111046</v>
+        <v>124.7482934111047</v>
       </c>
       <c r="E26" t="n">
         <v>158.4550458305135</v>
       </c>
       <c r="F26" t="n">
-        <v>190.1753834088908</v>
+        <v>190.1753834088909</v>
       </c>
       <c r="G26" t="n">
-        <v>205.8055936544155</v>
+        <v>205.8055936544156</v>
       </c>
       <c r="H26" t="n">
         <v>133.9082995764715</v>
       </c>
       <c r="I26" t="n">
-        <v>27.64999207905635</v>
+        <v>27.64999207905637</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.29457908267326</v>
+        <v>14.29457908267329</v>
       </c>
       <c r="T26" t="n">
-        <v>9.403873673646023</v>
+        <v>9.403873673646052</v>
       </c>
       <c r="U26" t="n">
-        <v>37.12597821535829</v>
+        <v>37.12597821535831</v>
       </c>
       <c r="V26" t="n">
         <v>107.8559173780294</v>
       </c>
       <c r="W26" t="n">
-        <v>124.8725975946442</v>
+        <v>124.8725975946443</v>
       </c>
       <c r="X26" t="n">
         <v>146.7588480635835</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.2617011873272</v>
+        <v>169.2617011873273</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7399425673786</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.274367503314927</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.25948205259457</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5041984375643</v>
       </c>
       <c r="T27" t="n">
-        <v>214.952132847766</v>
+        <v>1.928266616643382</v>
       </c>
       <c r="U27" t="n">
-        <v>82.99628728068019</v>
+        <v>24.20389656134177</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.68071734588895</v>
+        <v>53.68071734588898</v>
       </c>
       <c r="X27" t="n">
-        <v>4.289048208347964</v>
+        <v>4.289048208347992</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.36041990290298</v>
+        <v>10.360419902903</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.34606561876098</v>
+        <v>22.34606561876101</v>
       </c>
       <c r="T28" t="n">
-        <v>10.72099274989439</v>
+        <v>10.72099274989442</v>
       </c>
       <c r="U28" t="n">
-        <v>75.63247755272842</v>
+        <v>75.63247755272845</v>
       </c>
       <c r="V28" t="n">
-        <v>32.08514895332726</v>
+        <v>32.08514895332729</v>
       </c>
       <c r="W28" t="n">
-        <v>77.28684085821268</v>
+        <v>77.28684085821271</v>
       </c>
       <c r="X28" t="n">
-        <v>8.895589177119888</v>
+        <v>8.895589177119916</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.117406583045778</v>
+        <v>4.117406583045806</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>190.1753834088908</v>
       </c>
       <c r="G29" t="n">
-        <v>205.8055936544155</v>
+        <v>205.8055936544156</v>
       </c>
       <c r="H29" t="n">
         <v>133.9082995764715</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.03472238375154</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.928266616643354</v>
+        <v>203.1862324000456</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2277627924644</v>
+        <v>24.20389656134174</v>
       </c>
       <c r="V30" t="n">
-        <v>27.6250546842796</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>80.00501750241807</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>4.289048208347964</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.0633741467107</v>
+        <v>161.0633741467108</v>
       </c>
       <c r="C32" t="n">
-        <v>137.1816311500562</v>
+        <v>137.1816311500563</v>
       </c>
       <c r="D32" t="n">
-        <v>124.7482934111046</v>
+        <v>124.7482934111047</v>
       </c>
       <c r="E32" t="n">
-        <v>158.4550458305135</v>
+        <v>158.4550458305136</v>
       </c>
       <c r="F32" t="n">
-        <v>190.1753834088908</v>
+        <v>190.1753834088909</v>
       </c>
       <c r="G32" t="n">
         <v>205.8055936544156</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9082995764715</v>
+        <v>133.9082995764716</v>
       </c>
       <c r="I32" t="n">
-        <v>27.64999207905634</v>
+        <v>27.64999207905643</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.29457908267326</v>
+        <v>14.29457908267335</v>
       </c>
       <c r="T32" t="n">
-        <v>9.403873673646023</v>
+        <v>9.403873673646103</v>
       </c>
       <c r="U32" t="n">
-        <v>37.12597821535829</v>
+        <v>37.12597821535837</v>
       </c>
       <c r="V32" t="n">
-        <v>107.8559173780294</v>
+        <v>107.8559173780295</v>
       </c>
       <c r="W32" t="n">
-        <v>124.8725975946442</v>
+        <v>124.8725975946443</v>
       </c>
       <c r="X32" t="n">
-        <v>146.7588480635835</v>
+        <v>146.7588480635836</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.2617011873272</v>
+        <v>169.2617011873273</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>66.82761218294772</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.274367503314927</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.4303536004542</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.928266616643354</v>
+        <v>1.928266616643439</v>
       </c>
       <c r="U33" t="n">
-        <v>24.20389656134174</v>
+        <v>24.20389656134183</v>
       </c>
       <c r="V33" t="n">
-        <v>235.1573879709969</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.289048208348049</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.36041990290298</v>
+        <v>10.36041990290306</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.34606561876098</v>
+        <v>22.34606561876107</v>
       </c>
       <c r="T34" t="n">
-        <v>10.72099274989439</v>
+        <v>10.72099274989448</v>
       </c>
       <c r="U34" t="n">
-        <v>75.63247755272842</v>
+        <v>75.6324775527285</v>
       </c>
       <c r="V34" t="n">
-        <v>32.08514895332726</v>
+        <v>32.08514895332735</v>
       </c>
       <c r="W34" t="n">
-        <v>77.28684085821268</v>
+        <v>77.28684085821277</v>
       </c>
       <c r="X34" t="n">
-        <v>8.895589177119888</v>
+        <v>8.895589177119973</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.117406583045778</v>
+        <v>4.117406583045863</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6905003762977</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.90158986811401</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.4303536004542</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>199.8513103735456</v>
       </c>
       <c r="W36" t="n">
         <v>16.55473913053069</v>
@@ -3411,7 +3411,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.9373959313525</v>
+        <v>123.9373959313524</v>
       </c>
       <c r="C38" t="n">
-        <v>100.055652934698</v>
+        <v>100.0556529346979</v>
       </c>
       <c r="D38" t="n">
-        <v>87.62231519574644</v>
+        <v>87.62231519574635</v>
       </c>
       <c r="E38" t="n">
-        <v>121.3290676151553</v>
+        <v>121.3290676151552</v>
       </c>
       <c r="F38" t="n">
         <v>153.0494051935326</v>
       </c>
       <c r="G38" t="n">
-        <v>168.6796154390574</v>
+        <v>168.6796154390573</v>
       </c>
       <c r="H38" t="n">
-        <v>96.78232136111328</v>
+        <v>96.78232136111319</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72993916267117</v>
+        <v>70.72993916267109</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74661937928605</v>
+        <v>87.74661937928596</v>
       </c>
       <c r="X38" t="n">
-        <v>109.6328698482253</v>
+        <v>109.6328698482252</v>
       </c>
       <c r="Y38" t="n">
         <v>132.135722971969</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5041984375643</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>69.73184779240533</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2277627924644</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55473913053075</v>
+        <v>16.55473913053066</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>215.671768939226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50649933737022</v>
+        <v>38.50649933737013</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.16086264285448</v>
+        <v>40.1608626428544</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.5316390709998</v>
       </c>
       <c r="D41" t="n">
-        <v>97.09830133204827</v>
+        <v>97.09830133204829</v>
       </c>
       <c r="E41" t="n">
-        <v>108.4729978096162</v>
+        <v>130.8050537514572</v>
       </c>
       <c r="F41" t="n">
         <v>162.5253913298345</v>
@@ -3755,7 +3755,7 @@
         <v>178.1556015753592</v>
       </c>
       <c r="H41" t="n">
-        <v>106.2583074974151</v>
+        <v>83.92625155556865</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.475986136301904</v>
+        <v>9.475986136301932</v>
       </c>
       <c r="V41" t="n">
-        <v>80.205925298973</v>
+        <v>80.20592529897303</v>
       </c>
       <c r="W41" t="n">
-        <v>97.22260551558787</v>
+        <v>97.2226055155879</v>
       </c>
       <c r="X41" t="n">
         <v>119.1088559845271</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6905003762977</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>28.3508365648655</v>
       </c>
       <c r="U42" t="n">
         <v>237.2277627924644</v>
       </c>
       <c r="V42" t="n">
-        <v>2.449834710740677</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>26.03072526683258</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.98248547367204</v>
+        <v>47.98248547367207</v>
       </c>
       <c r="V43" t="n">
-        <v>4.435156874270888</v>
+        <v>4.435156874270916</v>
       </c>
       <c r="W43" t="n">
-        <v>49.63684877915631</v>
+        <v>49.63684877915634</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.5316390709998</v>
       </c>
       <c r="D44" t="n">
-        <v>97.09830133204827</v>
+        <v>97.09830133204829</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8050537514571</v>
+        <v>130.8050537514572</v>
       </c>
       <c r="F44" t="n">
-        <v>140.1933353879939</v>
+        <v>140.193335387988</v>
       </c>
       <c r="G44" t="n">
         <v>178.1556015753592</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.475986136301904</v>
+        <v>9.475986136301932</v>
       </c>
       <c r="V44" t="n">
-        <v>80.205925298973</v>
+        <v>80.20592529897303</v>
       </c>
       <c r="W44" t="n">
-        <v>97.22260551558787</v>
+        <v>97.2226055155879</v>
       </c>
       <c r="X44" t="n">
         <v>119.1088559845271</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.54784964736142</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.274367503314927</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.4303536004542</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5041984375643</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.952132847766</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>146.4299181185384</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>26.03072526683258</v>
+        <v>26.0307252668326</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.98248547367204</v>
+        <v>47.98248547367207</v>
       </c>
       <c r="V46" t="n">
-        <v>4.435156874270888</v>
+        <v>4.435156874270916</v>
       </c>
       <c r="W46" t="n">
-        <v>49.63684877915631</v>
+        <v>49.63684877915634</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="C11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="D11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="E11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="F11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="G11" t="n">
-        <v>186.3737270654288</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="H11" t="n">
-        <v>57.05014091020639</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="I11" t="n">
         <v>10.24242802349361</v>
       </c>
       <c r="J11" t="n">
-        <v>127.3516219884668</v>
+        <v>92.48867668949626</v>
       </c>
       <c r="K11" t="n">
-        <v>127.3516219884668</v>
+        <v>219.2387234802297</v>
       </c>
       <c r="L11" t="n">
-        <v>175.4337034961587</v>
+        <v>267.3208049879216</v>
       </c>
       <c r="M11" t="n">
-        <v>257.8102432832486</v>
+        <v>349.6973447750115</v>
       </c>
       <c r="N11" t="n">
-        <v>334.6772855891199</v>
+        <v>476.4473915657449</v>
       </c>
       <c r="O11" t="n">
-        <v>370.3512951980557</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="P11" t="n">
-        <v>407.6136353521753</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="Q11" t="n">
         <v>512.1214011746806</v>
@@ -5066,25 +5066,25 @@
         <v>512.1214011746806</v>
       </c>
       <c r="S11" t="n">
-        <v>478.8040044459306</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="T11" t="n">
-        <v>478.8040044459306</v>
+        <v>483.7441109196955</v>
       </c>
       <c r="U11" t="n">
-        <v>422.4245883912362</v>
+        <v>427.364694865001</v>
       </c>
       <c r="V11" t="n">
-        <v>422.4245883912362</v>
+        <v>299.5408958177094</v>
       </c>
       <c r="W11" t="n">
-        <v>422.4245883912362</v>
+        <v>170.217309662487</v>
       </c>
       <c r="X11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.1010022360138</v>
+        <v>139.5660141787161</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.88305170045751</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="C12" t="n">
         <v>10.24242802349361</v>
@@ -5121,49 +5121,49 @@
         <v>10.24242802349361</v>
       </c>
       <c r="K12" t="n">
-        <v>10.24242802349361</v>
+        <v>48.95102186729957</v>
       </c>
       <c r="L12" t="n">
-        <v>128.5774517182761</v>
+        <v>167.2860455620821</v>
       </c>
       <c r="M12" t="n">
-        <v>255.3274985090096</v>
+        <v>294.0360923528155</v>
       </c>
       <c r="N12" t="n">
-        <v>300.8649235091967</v>
+        <v>420.786139143549</v>
       </c>
       <c r="O12" t="n">
-        <v>427.6149702999301</v>
+        <v>427.6149702999302</v>
       </c>
       <c r="P12" t="n">
         <v>512.1214011746806</v>
       </c>
       <c r="Q12" t="n">
-        <v>512.1214011746806</v>
+        <v>505.7836562218372</v>
       </c>
       <c r="R12" t="n">
-        <v>382.7978150194582</v>
+        <v>505.7836562218372</v>
       </c>
       <c r="S12" t="n">
-        <v>382.7978150194582</v>
+        <v>376.4600700666149</v>
       </c>
       <c r="T12" t="n">
-        <v>361.9716430038696</v>
+        <v>355.6338980510264</v>
       </c>
       <c r="U12" t="n">
-        <v>318.6448346805049</v>
+        <v>265.2216874044814</v>
       </c>
       <c r="V12" t="n">
-        <v>271.8623110814454</v>
+        <v>135.898101249259</v>
       </c>
       <c r="W12" t="n">
-        <v>198.7609363090431</v>
+        <v>62.79672647685675</v>
       </c>
       <c r="X12" t="n">
-        <v>175.5501364230458</v>
+        <v>39.58592659085953</v>
       </c>
       <c r="Y12" t="n">
-        <v>146.2066378556799</v>
+        <v>10.24242802349361</v>
       </c>
     </row>
     <row r="13">
@@ -5188,58 +5188,58 @@
         <v>10.24242802349361</v>
       </c>
       <c r="G13" t="n">
-        <v>35.62341047499164</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="H13" t="n">
-        <v>35.62341047499164</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="I13" t="n">
-        <v>35.62341047499164</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2506389863487</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="K13" t="n">
-        <v>109.2506389863487</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="L13" t="n">
-        <v>191.3001243513089</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="M13" t="n">
-        <v>191.3001243513089</v>
+        <v>64.55007756057523</v>
       </c>
       <c r="N13" t="n">
-        <v>191.3001243513089</v>
+        <v>64.55007756057523</v>
       </c>
       <c r="O13" t="n">
-        <v>318.0501711420424</v>
+        <v>191.3001243513087</v>
       </c>
       <c r="P13" t="n">
-        <v>318.0501711420424</v>
+        <v>318.0501711420421</v>
       </c>
       <c r="Q13" t="n">
-        <v>384.8202366917353</v>
+        <v>384.8202366917351</v>
       </c>
       <c r="R13" t="n">
-        <v>375.8101323109831</v>
+        <v>375.8101323109829</v>
       </c>
       <c r="S13" t="n">
-        <v>334.3599208993161</v>
+        <v>334.359920899316</v>
       </c>
       <c r="T13" t="n">
-        <v>304.6522073349892</v>
+        <v>304.652207334989</v>
       </c>
       <c r="U13" t="n">
-        <v>209.3773374041632</v>
+        <v>209.3773374041631</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0896680787929</v>
+        <v>158.0896680787928</v>
       </c>
       <c r="W13" t="n">
-        <v>61.1437241020232</v>
+        <v>61.14372410202314</v>
       </c>
       <c r="X13" t="n">
-        <v>33.27985253039775</v>
+        <v>33.27985253039772</v>
       </c>
       <c r="Y13" t="n">
         <v>10.24242802349361</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>394.0472981362508</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="C14" t="n">
-        <v>264.7237119810284</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="D14" t="n">
-        <v>264.7237119810284</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="E14" t="n">
-        <v>264.7237119810284</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="F14" t="n">
-        <v>264.7237119810284</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="G14" t="n">
-        <v>186.3737270654287</v>
+        <v>34.45382992556871</v>
       </c>
       <c r="H14" t="n">
-        <v>57.05014091020632</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="I14" t="n">
         <v>10.24242802349361</v>
       </c>
       <c r="J14" t="n">
-        <v>127.3516219884668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="K14" t="n">
-        <v>127.3516219884668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="L14" t="n">
-        <v>175.4337034961588</v>
+        <v>99.37772550025255</v>
       </c>
       <c r="M14" t="n">
-        <v>257.8102432832486</v>
+        <v>181.7542652873424</v>
       </c>
       <c r="N14" t="n">
-        <v>334.6772855891199</v>
+        <v>258.6213075932137</v>
       </c>
       <c r="O14" t="n">
-        <v>370.3512951980557</v>
+        <v>385.3713543839472</v>
       </c>
       <c r="P14" t="n">
-        <v>407.6136353521752</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="Q14" t="n">
         <v>512.1214011746806</v>
@@ -5303,25 +5303,25 @@
         <v>512.1214011746806</v>
       </c>
       <c r="S14" t="n">
-        <v>478.8040044459305</v>
+        <v>478.8040044459306</v>
       </c>
       <c r="T14" t="n">
-        <v>450.4267141909453</v>
+        <v>478.8040044459306</v>
       </c>
       <c r="U14" t="n">
-        <v>394.0472981362508</v>
+        <v>422.424588391236</v>
       </c>
       <c r="V14" t="n">
-        <v>394.0472981362508</v>
+        <v>422.424588391236</v>
       </c>
       <c r="W14" t="n">
-        <v>394.0472981362508</v>
+        <v>293.1010022360136</v>
       </c>
       <c r="X14" t="n">
-        <v>394.0472981362508</v>
+        <v>163.7774160807911</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.0472981362508</v>
+        <v>34.45382992556871</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>192.1263398188691</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="C15" t="n">
-        <v>192.1263398188691</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="D15" t="n">
-        <v>192.1263398188691</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="E15" t="n">
-        <v>62.80275366364668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="F15" t="n">
-        <v>62.80275366364668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="G15" t="n">
-        <v>62.80275366364668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="H15" t="n">
-        <v>62.80275366364668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="I15" t="n">
-        <v>62.80275366364668</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="J15" t="n">
         <v>10.24242802349361</v>
       </c>
       <c r="K15" t="n">
-        <v>10.24242802349361</v>
+        <v>48.95102186729959</v>
       </c>
       <c r="L15" t="n">
-        <v>128.5774517182761</v>
+        <v>167.2860455620821</v>
       </c>
       <c r="M15" t="n">
-        <v>174.1148767184632</v>
+        <v>294.0360923528156</v>
       </c>
       <c r="N15" t="n">
         <v>300.8649235091967</v>
@@ -5385,22 +5385,22 @@
         <v>512.1214011746806</v>
       </c>
       <c r="T15" t="n">
-        <v>491.2952291590921</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="U15" t="n">
-        <v>447.9684208357273</v>
+        <v>339.4710066960935</v>
       </c>
       <c r="V15" t="n">
-        <v>401.1858972366678</v>
+        <v>292.688483097034</v>
       </c>
       <c r="W15" t="n">
-        <v>328.0845224642655</v>
+        <v>163.3648969418116</v>
       </c>
       <c r="X15" t="n">
-        <v>221.469838386235</v>
+        <v>140.1540970558143</v>
       </c>
       <c r="Y15" t="n">
-        <v>192.1263398188691</v>
+        <v>110.8105984884484</v>
       </c>
     </row>
     <row r="16">
@@ -5413,40 +5413,40 @@
         <v>10.24242802349361</v>
       </c>
       <c r="C16" t="n">
-        <v>37.84069918805098</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="D16" t="n">
-        <v>86.50075576665738</v>
+        <v>58.9024846021</v>
       </c>
       <c r="E16" t="n">
-        <v>86.50075576665738</v>
+        <v>111.0339851288073</v>
       </c>
       <c r="F16" t="n">
-        <v>86.50075576665738</v>
+        <v>165.8872520593551</v>
       </c>
       <c r="G16" t="n">
-        <v>111.8817382181554</v>
+        <v>165.8872520593551</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1408664842315</v>
+        <v>165.8872520593551</v>
       </c>
       <c r="I16" t="n">
-        <v>169.4436689046488</v>
+        <v>165.8872520593551</v>
       </c>
       <c r="J16" t="n">
-        <v>169.4436689046488</v>
+        <v>239.5144805707122</v>
       </c>
       <c r="K16" t="n">
-        <v>169.4436689046488</v>
+        <v>258.0701899010019</v>
       </c>
       <c r="L16" t="n">
-        <v>169.4436689046488</v>
+        <v>258.0701899010019</v>
       </c>
       <c r="M16" t="n">
-        <v>258.0701899010018</v>
+        <v>258.0701899010019</v>
       </c>
       <c r="N16" t="n">
-        <v>258.0701899010018</v>
+        <v>384.8202366917353</v>
       </c>
       <c r="O16" t="n">
         <v>384.8202366917353</v>
@@ -5498,67 +5498,67 @@
         <v>278.2756272195371</v>
       </c>
       <c r="E17" t="n">
-        <v>225.0360494276568</v>
+        <v>225.0360494276567</v>
       </c>
       <c r="F17" t="n">
-        <v>139.7557266071126</v>
+        <v>139.7557266071124</v>
       </c>
       <c r="G17" t="n">
-        <v>38.68731262947286</v>
+        <v>38.6873126294729</v>
       </c>
       <c r="H17" t="n">
         <v>10.24242802349361</v>
       </c>
       <c r="I17" t="n">
-        <v>87.55932104361435</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="J17" t="n">
-        <v>87.55932104361435</v>
+        <v>136.9924748142271</v>
       </c>
       <c r="K17" t="n">
-        <v>87.55932104361435</v>
+        <v>263.7425216049605</v>
       </c>
       <c r="L17" t="n">
-        <v>135.6414025513063</v>
+        <v>311.8246031126525</v>
       </c>
       <c r="M17" t="n">
-        <v>218.0179423383961</v>
+        <v>394.2011428997423</v>
       </c>
       <c r="N17" t="n">
-        <v>294.8849846442674</v>
+        <v>471.0681852056136</v>
       </c>
       <c r="O17" t="n">
-        <v>330.5589942532032</v>
+        <v>506.7421948145494</v>
       </c>
       <c r="P17" t="n">
-        <v>330.5589942532032</v>
+        <v>506.7421948145494</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.5589942532032</v>
+        <v>506.7421948145494</v>
       </c>
       <c r="R17" t="n">
-        <v>330.5589942532032</v>
+        <v>506.7421948145494</v>
       </c>
       <c r="S17" t="n">
-        <v>421.0977461397432</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="T17" t="n">
-        <v>444.1857344294988</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="U17" t="n">
         <v>512.1214011746806</v>
       </c>
       <c r="V17" t="n">
-        <v>509.9920541428853</v>
+        <v>509.9920541428852</v>
       </c>
       <c r="W17" t="n">
-        <v>490.6741412357215</v>
+        <v>490.6741412357214</v>
       </c>
       <c r="X17" t="n">
-        <v>449.2489046225584</v>
+        <v>449.2489046225583</v>
       </c>
       <c r="Y17" t="n">
-        <v>385.0935133389471</v>
+        <v>385.0935133389469</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>268.8896003339383</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="C18" t="n">
-        <v>139.566014178716</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="D18" t="n">
-        <v>139.566014178716</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="E18" t="n">
-        <v>139.566014178716</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="F18" t="n">
-        <v>139.566014178716</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="G18" t="n">
         <v>10.24242802349361</v>
@@ -5601,7 +5601,7 @@
         <v>167.2860455620821</v>
       </c>
       <c r="M18" t="n">
-        <v>174.1148767184632</v>
+        <v>294.0360923528156</v>
       </c>
       <c r="N18" t="n">
         <v>300.8649235091967</v>
@@ -5616,28 +5616,28 @@
         <v>512.1214011746806</v>
       </c>
       <c r="R18" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="S18" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="T18" t="n">
-        <v>512.1214011746806</v>
+        <v>253.4742288642358</v>
       </c>
       <c r="U18" t="n">
-        <v>398.2131864891608</v>
+        <v>253.4742288642358</v>
       </c>
       <c r="V18" t="n">
-        <v>268.8896003339383</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="W18" t="n">
-        <v>268.8896003339383</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="X18" t="n">
-        <v>268.8896003339383</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="Y18" t="n">
-        <v>268.8896003339383</v>
+        <v>124.1506427090134</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.219260480201</v>
+        <v>329.2192604802007</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4679803453483</v>
+        <v>297.467980345348</v>
       </c>
       <c r="D20" t="n">
-        <v>278.2756272195376</v>
+        <v>278.2756272195372</v>
       </c>
       <c r="E20" t="n">
-        <v>225.0360494276574</v>
+        <v>225.0360494276569</v>
       </c>
       <c r="F20" t="n">
-        <v>139.7557266071131</v>
+        <v>139.7557266071126</v>
       </c>
       <c r="G20" t="n">
-        <v>38.68731262947284</v>
+        <v>38.6873126294729</v>
       </c>
       <c r="H20" t="n">
         <v>10.24242802349361</v>
@@ -5753,34 +5753,34 @@
         <v>10.24242802349361</v>
       </c>
       <c r="K20" t="n">
-        <v>10.24242802349361</v>
+        <v>55.38984365816395</v>
       </c>
       <c r="L20" t="n">
-        <v>58.32450953118557</v>
+        <v>103.4719251658559</v>
       </c>
       <c r="M20" t="n">
-        <v>140.7010493182754</v>
+        <v>185.8484649529457</v>
       </c>
       <c r="N20" t="n">
-        <v>217.5680916241467</v>
+        <v>262.7155072588171</v>
       </c>
       <c r="O20" t="n">
-        <v>253.2421012330825</v>
+        <v>298.3895168677528</v>
       </c>
       <c r="P20" t="n">
-        <v>253.2421012330825</v>
+        <v>298.3895168677528</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.2421012330825</v>
+        <v>298.3895168677528</v>
       </c>
       <c r="R20" t="n">
-        <v>353.6469825429588</v>
+        <v>421.5826492881407</v>
       </c>
       <c r="S20" t="n">
-        <v>444.1857344294988</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="T20" t="n">
-        <v>444.1857344294988</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="U20" t="n">
         <v>512.1214011746806</v>
@@ -5789,13 +5789,13 @@
         <v>509.9920541428853</v>
       </c>
       <c r="W20" t="n">
-        <v>490.6741412357215</v>
+        <v>490.6741412357214</v>
       </c>
       <c r="X20" t="n">
-        <v>449.2489046225584</v>
+        <v>449.2489046225583</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.0935133389471</v>
+        <v>385.0935133389469</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.1214011746806</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="C21" t="n">
-        <v>398.2131864891608</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="D21" t="n">
-        <v>268.8896003339383</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="E21" t="n">
-        <v>139.566014178716</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="F21" t="n">
         <v>10.24242802349361</v>
@@ -5832,13 +5832,13 @@
         <v>10.24242802349361</v>
       </c>
       <c r="K21" t="n">
-        <v>48.95102186729959</v>
+        <v>47.36482992772977</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2860455620821</v>
+        <v>47.36482992772977</v>
       </c>
       <c r="M21" t="n">
-        <v>294.0360923528156</v>
+        <v>174.1148767184632</v>
       </c>
       <c r="N21" t="n">
         <v>300.8649235091967</v>
@@ -5853,28 +5853,28 @@
         <v>512.1214011746806</v>
       </c>
       <c r="R21" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="S21" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="T21" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="U21" t="n">
-        <v>512.1214011746806</v>
+        <v>382.7978150194582</v>
       </c>
       <c r="V21" t="n">
-        <v>512.1214011746806</v>
+        <v>253.4742288642358</v>
       </c>
       <c r="W21" t="n">
-        <v>512.1214011746806</v>
+        <v>253.4742288642358</v>
       </c>
       <c r="X21" t="n">
-        <v>512.1214011746806</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.1214011746806</v>
+        <v>124.1506427090134</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.2192604802009</v>
+        <v>329.2192604802005</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4679803453483</v>
+        <v>297.4679803453478</v>
       </c>
       <c r="D23" t="n">
-        <v>278.2756272195376</v>
+        <v>278.275627219537</v>
       </c>
       <c r="E23" t="n">
-        <v>225.0360494276573</v>
+        <v>225.0360494276565</v>
       </c>
       <c r="F23" t="n">
-        <v>139.755726607113</v>
+        <v>139.7557266071121</v>
       </c>
       <c r="G23" t="n">
-        <v>38.68731262947284</v>
+        <v>38.6873126294729</v>
       </c>
       <c r="H23" t="n">
         <v>10.24242802349361</v>
       </c>
       <c r="I23" t="n">
-        <v>10.24242802349361</v>
+        <v>87.55932104361429</v>
       </c>
       <c r="J23" t="n">
-        <v>10.24242802349361</v>
+        <v>87.55932104361429</v>
       </c>
       <c r="K23" t="n">
-        <v>10.24242802349361</v>
+        <v>87.55932104361429</v>
       </c>
       <c r="L23" t="n">
-        <v>58.32450953118557</v>
+        <v>135.6414025513062</v>
       </c>
       <c r="M23" t="n">
-        <v>140.7010493182754</v>
+        <v>218.0179423383961</v>
       </c>
       <c r="N23" t="n">
-        <v>217.5680916241467</v>
+        <v>294.8849846442674</v>
       </c>
       <c r="O23" t="n">
-        <v>253.2421012330825</v>
+        <v>330.5589942532032</v>
       </c>
       <c r="P23" t="n">
-        <v>253.2421012330825</v>
+        <v>457.3090410439366</v>
       </c>
       <c r="Q23" t="n">
-        <v>253.2421012330825</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="R23" t="n">
-        <v>353.6469825429588</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="S23" t="n">
-        <v>444.1857344294988</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="T23" t="n">
-        <v>444.1857344294988</v>
+        <v>512.1214011746806</v>
       </c>
       <c r="U23" t="n">
         <v>512.1214011746806</v>
       </c>
       <c r="V23" t="n">
-        <v>509.9920541428853</v>
+        <v>509.9920541428851</v>
       </c>
       <c r="W23" t="n">
-        <v>490.6741412357215</v>
+        <v>490.6741412357212</v>
       </c>
       <c r="X23" t="n">
-        <v>449.2489046225584</v>
+        <v>449.2489046225581</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.093513338947</v>
+        <v>385.0935133389467</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.1506427090134</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="C24" t="n">
         <v>10.24242802349361</v>
@@ -6072,10 +6072,10 @@
         <v>48.95102186729959</v>
       </c>
       <c r="L24" t="n">
-        <v>48.95102186729959</v>
+        <v>167.2860455620821</v>
       </c>
       <c r="M24" t="n">
-        <v>175.701068658033</v>
+        <v>294.0360923528156</v>
       </c>
       <c r="N24" t="n">
         <v>300.8649235091967</v>
@@ -6099,7 +6099,7 @@
         <v>253.4742288642358</v>
       </c>
       <c r="U24" t="n">
-        <v>253.4742288642358</v>
+        <v>124.1506427090134</v>
       </c>
       <c r="V24" t="n">
         <v>124.1506427090134</v>
@@ -6108,10 +6108,10 @@
         <v>124.1506427090134</v>
       </c>
       <c r="X24" t="n">
-        <v>124.1506427090134</v>
+        <v>10.24242802349361</v>
       </c>
       <c r="Y24" t="n">
-        <v>124.1506427090134</v>
+        <v>10.24242802349361</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1023.847636051688</v>
+        <v>1023.847636051689</v>
       </c>
       <c r="C26" t="n">
-        <v>885.2803318597121</v>
+        <v>885.2803318597131</v>
       </c>
       <c r="D26" t="n">
-        <v>759.2719546767783</v>
+        <v>759.271954676779</v>
       </c>
       <c r="E26" t="n">
-        <v>599.2163528277747</v>
+        <v>599.2163528277755</v>
       </c>
       <c r="F26" t="n">
-        <v>407.1200059501072</v>
+        <v>407.120005950108</v>
       </c>
       <c r="G26" t="n">
-        <v>199.235567915344</v>
+        <v>199.2355679153442</v>
       </c>
       <c r="H26" t="n">
-        <v>63.97465925224166</v>
+        <v>63.97465925224169</v>
       </c>
       <c r="I26" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="J26" t="n">
-        <v>171.6573155308765</v>
+        <v>171.6573155308766</v>
       </c>
       <c r="K26" t="n">
         <v>376.9882755965019</v>
       </c>
       <c r="L26" t="n">
-        <v>635.9639846730053</v>
+        <v>635.9639846730051</v>
       </c>
       <c r="M26" t="n">
-        <v>929.2341520289065</v>
+        <v>929.2341520289064</v>
       </c>
       <c r="N26" t="n">
         <v>1216.994821903589</v>
@@ -6260,16 +6260,16 @@
         <v>1740.829897031785</v>
       </c>
       <c r="V26" t="n">
-        <v>1631.884525942866</v>
+        <v>1631.884525942867</v>
       </c>
       <c r="W26" t="n">
-        <v>1505.750588978578</v>
+        <v>1505.75058897858</v>
       </c>
       <c r="X26" t="n">
-        <v>1357.509328308292</v>
+        <v>1357.509328308293</v>
       </c>
       <c r="Y26" t="n">
-        <v>1186.537912967557</v>
+        <v>1186.537912967558</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.2877405535773</v>
+        <v>225.4576485909382</v>
       </c>
       <c r="C27" t="n">
-        <v>186.2877405535773</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="D27" t="n">
-        <v>186.2877405535773</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="E27" t="n">
-        <v>186.2877405535773</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="F27" t="n">
-        <v>186.2877405535773</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="G27" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="H27" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="I27" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="J27" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="K27" t="n">
-        <v>74.75396816770788</v>
+        <v>74.7539681677079</v>
       </c>
       <c r="L27" t="n">
         <v>193.0889918624904</v>
@@ -6324,31 +6324,31 @@
         <v>799.3458481303333</v>
       </c>
       <c r="Q27" t="n">
-        <v>799.3458481303333</v>
+        <v>793.0081031774899</v>
       </c>
       <c r="R27" t="n">
-        <v>799.3458481303333</v>
+        <v>757.3924647405257</v>
       </c>
       <c r="S27" t="n">
-        <v>799.3458481303333</v>
+        <v>563.9538804601577</v>
       </c>
       <c r="T27" t="n">
-        <v>582.2224816174382</v>
+        <v>562.0061364029422</v>
       </c>
       <c r="U27" t="n">
-        <v>498.3878480005895</v>
+        <v>537.5577560379505</v>
       </c>
       <c r="V27" t="n">
-        <v>255.3081299042236</v>
+        <v>294.4780379415846</v>
       </c>
       <c r="W27" t="n">
-        <v>201.0851830901944</v>
+        <v>240.2550911275553</v>
       </c>
       <c r="X27" t="n">
-        <v>196.7528111625702</v>
+        <v>235.9227191999311</v>
       </c>
       <c r="Y27" t="n">
-        <v>186.2877405535773</v>
+        <v>225.4576485909382</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="C28" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="D28" t="n">
-        <v>36.04537432390191</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="E28" t="n">
-        <v>36.04537432390191</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="F28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="G28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="I28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="J28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="K28" t="n">
-        <v>109.4013884964511</v>
+        <v>103.2081781445097</v>
       </c>
       <c r="L28" t="n">
-        <v>109.4013884964511</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="M28" t="n">
-        <v>109.4013884964511</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="N28" t="n">
-        <v>115.9962936872358</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="O28" t="n">
-        <v>115.9962936872358</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="P28" t="n">
-        <v>269.4640829027801</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="Q28" t="n">
-        <v>269.4640829027801</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="R28" t="n">
-        <v>269.4640829027801</v>
+        <v>269.4640829027803</v>
       </c>
       <c r="S28" t="n">
-        <v>246.8922994494862</v>
+        <v>246.8922994494864</v>
       </c>
       <c r="T28" t="n">
-        <v>236.0630138435323</v>
+        <v>236.0630138435324</v>
       </c>
       <c r="U28" t="n">
-        <v>159.6665718710793</v>
+        <v>159.6665718710794</v>
       </c>
       <c r="V28" t="n">
-        <v>127.2573305040821</v>
+        <v>127.2573305040822</v>
       </c>
       <c r="W28" t="n">
-        <v>49.18981448568542</v>
+        <v>49.18981448568547</v>
       </c>
       <c r="X28" t="n">
-        <v>40.204370872433</v>
+        <v>40.20437087243303</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.04537432390191</v>
+        <v>36.04537432390192</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1023.847636051689</v>
+        <v>1023.847636051688</v>
       </c>
       <c r="C29" t="n">
-        <v>885.2803318597129</v>
+        <v>885.2803318597123</v>
       </c>
       <c r="D29" t="n">
-        <v>759.2719546767789</v>
+        <v>759.2719546767784</v>
       </c>
       <c r="E29" t="n">
-        <v>599.2163528277754</v>
+        <v>599.2163528277748</v>
       </c>
       <c r="F29" t="n">
-        <v>407.1200059501077</v>
+        <v>407.1200059501073</v>
       </c>
       <c r="G29" t="n">
         <v>199.2355679153441</v>
       </c>
       <c r="H29" t="n">
-        <v>63.97465925224165</v>
+        <v>63.97465925224166</v>
       </c>
       <c r="I29" t="n">
         <v>36.04537432390192</v>
       </c>
       <c r="J29" t="n">
-        <v>171.6573155308767</v>
+        <v>171.6573155308764</v>
       </c>
       <c r="K29" t="n">
-        <v>376.988275596502</v>
+        <v>376.9882755965018</v>
       </c>
       <c r="L29" t="n">
-        <v>635.9639846730054</v>
+        <v>635.9639846730051</v>
       </c>
       <c r="M29" t="n">
-        <v>929.2341520289067</v>
+        <v>929.2341520289065</v>
       </c>
       <c r="N29" t="n">
         <v>1216.994821903589</v>
       </c>
       <c r="O29" t="n">
-        <v>1463.562459081337</v>
+        <v>1463.562459081336</v>
       </c>
       <c r="P29" t="n">
-        <v>1660.755455888588</v>
+        <v>1660.755455888587</v>
       </c>
       <c r="Q29" t="n">
         <v>1783.765968953094</v>
@@ -6491,19 +6491,19 @@
         <v>1787.829747424719</v>
       </c>
       <c r="T29" t="n">
-        <v>1778.330885128107</v>
+        <v>1778.330885128106</v>
       </c>
       <c r="U29" t="n">
-        <v>1740.829897031785</v>
+        <v>1740.829897031784</v>
       </c>
       <c r="V29" t="n">
-        <v>1631.884525942867</v>
+        <v>1631.884525942866</v>
       </c>
       <c r="W29" t="n">
-        <v>1505.750588978579</v>
+        <v>1505.750588978578</v>
       </c>
       <c r="X29" t="n">
-        <v>1357.509328308293</v>
+        <v>1357.509328308292</v>
       </c>
       <c r="Y29" t="n">
         <v>1186.537912967558</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>249.3858162030232</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="C30" t="n">
-        <v>249.3858162030232</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="D30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="E30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="F30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="G30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="H30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="I30" t="n">
-        <v>88.60569996405499</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="J30" t="n">
         <v>36.04537432390192</v>
@@ -6570,22 +6570,22 @@
         <v>793.0081031774899</v>
       </c>
       <c r="T30" t="n">
-        <v>791.0603591202745</v>
+        <v>587.7694845915853</v>
       </c>
       <c r="U30" t="n">
-        <v>551.4363562996034</v>
+        <v>563.3211042265937</v>
       </c>
       <c r="V30" t="n">
-        <v>523.5322606589169</v>
+        <v>320.2413861302277</v>
       </c>
       <c r="W30" t="n">
-        <v>442.7191116665754</v>
+        <v>50.84281686051903</v>
       </c>
       <c r="X30" t="n">
-        <v>438.3867397389512</v>
+        <v>46.51044493289482</v>
       </c>
       <c r="Y30" t="n">
-        <v>427.9216691299583</v>
+        <v>36.04537432390192</v>
       </c>
     </row>
     <row r="31">
@@ -6598,49 +6598,49 @@
         <v>36.04537432390192</v>
       </c>
       <c r="C31" t="n">
-        <v>82.1463927304607</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="D31" t="n">
-        <v>149.3091965510685</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="E31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="F31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="G31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="H31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="I31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="J31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="K31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="L31" t="n">
-        <v>219.9434443197772</v>
+        <v>36.04537432390192</v>
       </c>
       <c r="M31" t="n">
-        <v>219.9434443197772</v>
+        <v>95.12764216138123</v>
       </c>
       <c r="N31" t="n">
-        <v>259.792138964354</v>
+        <v>95.12764216138123</v>
       </c>
       <c r="O31" t="n">
-        <v>259.792138964354</v>
+        <v>269.4640829027801</v>
       </c>
       <c r="P31" t="n">
-        <v>259.792138964354</v>
+        <v>269.4640829027801</v>
       </c>
       <c r="Q31" t="n">
-        <v>259.792138964354</v>
+        <v>269.4640829027801</v>
       </c>
       <c r="R31" t="n">
         <v>269.4640829027801</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1023.847636051689</v>
+        <v>1023.847636051688</v>
       </c>
       <c r="C32" t="n">
-        <v>885.2803318597134</v>
+        <v>885.2803318597124</v>
       </c>
       <c r="D32" t="n">
-        <v>759.2719546767795</v>
+        <v>759.2719546767784</v>
       </c>
       <c r="E32" t="n">
-        <v>599.2163528277759</v>
+        <v>599.2163528277747</v>
       </c>
       <c r="F32" t="n">
-        <v>407.1200059501084</v>
+        <v>407.1200059501067</v>
       </c>
       <c r="G32" t="n">
-        <v>199.2355679153452</v>
+        <v>199.2355679153434</v>
       </c>
       <c r="H32" t="n">
-        <v>63.97465925224166</v>
+        <v>63.97465925224175</v>
       </c>
       <c r="I32" t="n">
         <v>36.04537432390192</v>
       </c>
       <c r="J32" t="n">
-        <v>171.6573155308765</v>
+        <v>171.6573155308764</v>
       </c>
       <c r="K32" t="n">
-        <v>376.988275596502</v>
+        <v>376.9882755965025</v>
       </c>
       <c r="L32" t="n">
-        <v>635.9639846730054</v>
+        <v>635.9639846730058</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2341520289066</v>
+        <v>929.2341520289069</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.994821903589</v>
+        <v>1216.99482190359</v>
       </c>
       <c r="O32" t="n">
         <v>1463.562459081337</v>
@@ -6734,16 +6734,16 @@
         <v>1740.829897031785</v>
       </c>
       <c r="V32" t="n">
-        <v>1631.884525942867</v>
+        <v>1631.884525942866</v>
       </c>
       <c r="W32" t="n">
-        <v>1505.75058897858</v>
+        <v>1505.750588978579</v>
       </c>
       <c r="X32" t="n">
-        <v>1357.509328308294</v>
+        <v>1357.509328308293</v>
       </c>
       <c r="Y32" t="n">
-        <v>1186.537912967559</v>
+        <v>1186.537912967558</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.04537432390192</v>
+        <v>103.548012892536</v>
       </c>
       <c r="C33" t="n">
-        <v>36.04537432390192</v>
+        <v>103.548012892536</v>
       </c>
       <c r="D33" t="n">
-        <v>36.04537432390192</v>
+        <v>103.548012892536</v>
       </c>
       <c r="E33" t="n">
-        <v>36.04537432390192</v>
+        <v>103.548012892536</v>
       </c>
       <c r="F33" t="n">
         <v>36.04537432390192</v>
@@ -6798,31 +6798,31 @@
         <v>799.3458481303333</v>
       </c>
       <c r="Q33" t="n">
-        <v>799.3458481303333</v>
+        <v>793.0081031774899</v>
       </c>
       <c r="R33" t="n">
-        <v>799.3458481303333</v>
+        <v>657.2198672174352</v>
       </c>
       <c r="S33" t="n">
-        <v>799.3458481303333</v>
+        <v>657.2198672174352</v>
       </c>
       <c r="T33" t="n">
-        <v>797.3981040731178</v>
+        <v>655.2721231602196</v>
       </c>
       <c r="U33" t="n">
-        <v>772.9497237081262</v>
+        <v>630.8237427952279</v>
       </c>
       <c r="V33" t="n">
-        <v>535.4170085859071</v>
+        <v>387.7440246988619</v>
       </c>
       <c r="W33" t="n">
-        <v>266.0184393161985</v>
+        <v>118.3454554291533</v>
       </c>
       <c r="X33" t="n">
-        <v>46.51044493289482</v>
+        <v>114.013083501529</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.04537432390192</v>
+        <v>103.548012892536</v>
       </c>
     </row>
     <row r="34">
@@ -6850,55 +6850,55 @@
         <v>36.04537432390192</v>
       </c>
       <c r="H34" t="n">
-        <v>36.04537432390192</v>
+        <v>82.80724983197936</v>
       </c>
       <c r="I34" t="n">
-        <v>36.04537432390192</v>
+        <v>130.6127994943979</v>
       </c>
       <c r="J34" t="n">
-        <v>36.04537432390192</v>
+        <v>130.6127994943979</v>
       </c>
       <c r="K34" t="n">
-        <v>36.04537432390192</v>
+        <v>130.6127994943979</v>
       </c>
       <c r="L34" t="n">
-        <v>36.04537432390192</v>
+        <v>130.6127994943979</v>
       </c>
       <c r="M34" t="n">
-        <v>36.04537432390192</v>
+        <v>130.6127994943979</v>
       </c>
       <c r="N34" t="n">
-        <v>36.04537432390192</v>
+        <v>259.7921389643546</v>
       </c>
       <c r="O34" t="n">
-        <v>36.04537432390192</v>
+        <v>259.7921389643546</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5193261726596</v>
+        <v>259.7921389643546</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.792138964354</v>
+        <v>259.7921389643546</v>
       </c>
       <c r="R34" t="n">
-        <v>269.4640829027801</v>
+        <v>269.4640829027807</v>
       </c>
       <c r="S34" t="n">
-        <v>246.8922994494862</v>
+        <v>246.8922994494867</v>
       </c>
       <c r="T34" t="n">
-        <v>236.0630138435323</v>
+        <v>236.0630138435327</v>
       </c>
       <c r="U34" t="n">
-        <v>159.6665718710793</v>
+        <v>159.6665718710797</v>
       </c>
       <c r="V34" t="n">
-        <v>127.2573305040821</v>
+        <v>127.2573305040823</v>
       </c>
       <c r="W34" t="n">
-        <v>49.18981448568542</v>
+        <v>49.1898144856856</v>
       </c>
       <c r="X34" t="n">
-        <v>40.204370872433</v>
+        <v>40.2043708724331</v>
       </c>
       <c r="Y34" t="n">
         <v>36.04537432390192</v>
@@ -6932,37 +6932,37 @@
         <v>25.8029463004083</v>
       </c>
       <c r="I35" t="n">
-        <v>35.1841725753472</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5508322155264</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="K35" t="n">
-        <v>449.6365107143565</v>
+        <v>267.8886247992383</v>
       </c>
       <c r="L35" t="n">
-        <v>497.7185922220484</v>
+        <v>563.6190523089463</v>
       </c>
       <c r="M35" t="n">
-        <v>580.0951320091383</v>
+        <v>645.995592096036</v>
       </c>
       <c r="N35" t="n">
-        <v>656.9621743150096</v>
+        <v>965.3070525635887</v>
       </c>
       <c r="O35" t="n">
-        <v>940.2845299259614</v>
+        <v>1234.889849345209</v>
       </c>
       <c r="P35" t="n">
-        <v>1025.076649209844</v>
+        <v>1234.889849345209</v>
       </c>
       <c r="Q35" t="n">
-        <v>1184.841880707556</v>
+        <v>1234.889849345209</v>
       </c>
       <c r="R35" t="n">
-        <v>1240.099346382762</v>
+        <v>1290.147315020415</v>
       </c>
       <c r="S35" t="n">
-        <v>1262.70243152412</v>
+        <v>1290.147315020415</v>
       </c>
       <c r="T35" t="n">
         <v>1290.147315020415</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.2327739411558</v>
+        <v>215.2152205674446</v>
       </c>
       <c r="C36" t="n">
-        <v>327.2327739411558</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="D36" t="n">
-        <v>327.2327739411558</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="E36" t="n">
-        <v>327.2327739411558</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="F36" t="n">
-        <v>166.8050576583999</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="G36" t="n">
-        <v>166.8050576583999</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="H36" t="n">
-        <v>39.84495626820024</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="I36" t="n">
         <v>25.8029463004083</v>
@@ -7038,28 +7038,28 @@
         <v>789.1034201068396</v>
       </c>
       <c r="R36" t="n">
-        <v>789.1034201068396</v>
+        <v>653.3151841467849</v>
       </c>
       <c r="S36" t="n">
-        <v>789.1034201068396</v>
+        <v>653.3151841467849</v>
       </c>
       <c r="T36" t="n">
-        <v>789.1034201068396</v>
+        <v>653.3151841467849</v>
       </c>
       <c r="U36" t="n">
-        <v>789.1034201068396</v>
+        <v>653.3151841467849</v>
       </c>
       <c r="V36" t="n">
-        <v>789.1034201068396</v>
+        <v>451.445173668456</v>
       </c>
       <c r="W36" t="n">
-        <v>772.3814613891318</v>
+        <v>434.7232149507482</v>
       </c>
       <c r="X36" t="n">
-        <v>552.8734670058282</v>
+        <v>215.2152205674446</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.2327739411558</v>
+        <v>215.2152205674446</v>
       </c>
     </row>
     <row r="37">
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="C37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="D37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="E37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="F37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="G37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="H37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="I37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="J37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="K37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="L37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="M37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="N37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="O37" t="n">
-        <v>74.13357151839506</v>
+        <v>100.2745071292043</v>
       </c>
       <c r="P37" t="n">
-        <v>74.13357151839506</v>
+        <v>100.2745071292043</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.13357151839506</v>
+        <v>100.2745071292043</v>
       </c>
       <c r="R37" t="n">
-        <v>74.13357151839506</v>
+        <v>100.2745071292043</v>
       </c>
       <c r="S37" t="n">
-        <v>74.13357151839506</v>
+        <v>100.2745071292043</v>
       </c>
       <c r="T37" t="n">
         <v>100.2745071292043</v>
@@ -7135,10 +7135,10 @@
         <v>25.8029463004083</v>
       </c>
       <c r="X37" t="n">
-        <v>53.75103144826429</v>
+        <v>25.8029463004083</v>
       </c>
       <c r="Y37" t="n">
-        <v>74.13357151839506</v>
+        <v>25.8029463004083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>760.6699945219261</v>
+        <v>760.669994521926</v>
       </c>
       <c r="C38" t="n">
-        <v>659.6036784262716</v>
+        <v>659.6036784262717</v>
       </c>
       <c r="D38" t="n">
-        <v>571.0962893396591</v>
+        <v>571.0962893396592</v>
       </c>
       <c r="E38" t="n">
-        <v>448.5416755869769</v>
+        <v>448.5416755869771</v>
       </c>
       <c r="F38" t="n">
-        <v>293.9463168056308</v>
+        <v>293.9463168056311</v>
       </c>
       <c r="G38" t="n">
-        <v>123.5628668671894</v>
+        <v>123.5628668671893</v>
       </c>
       <c r="H38" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="I38" t="n">
-        <v>25.8029463004083</v>
+        <v>35.18417257534722</v>
       </c>
       <c r="J38" t="n">
-        <v>198.1696059405875</v>
+        <v>207.5508322155265</v>
       </c>
       <c r="K38" t="n">
-        <v>440.2552844394174</v>
+        <v>449.6365107143565</v>
       </c>
       <c r="L38" t="n">
-        <v>488.3373659471094</v>
+        <v>643.2721054651374</v>
       </c>
       <c r="M38" t="n">
-        <v>570.7139057341992</v>
+        <v>962.5835659326901</v>
       </c>
       <c r="N38" t="n">
-        <v>647.5809480400706</v>
+        <v>1039.450608238561</v>
       </c>
       <c r="O38" t="n">
-        <v>930.9033036510223</v>
+        <v>1075.124617847497</v>
       </c>
       <c r="P38" t="n">
-        <v>1164.851018891478</v>
+        <v>1075.124617847497</v>
       </c>
       <c r="Q38" t="n">
-        <v>1184.841880707556</v>
+        <v>1234.889849345209</v>
       </c>
       <c r="R38" t="n">
-        <v>1240.099346382762</v>
+        <v>1290.147315020415</v>
       </c>
       <c r="S38" t="n">
-        <v>1262.70243152412</v>
+        <v>1290.147315020415</v>
       </c>
       <c r="T38" t="n">
         <v>1290.147315020415</v>
@@ -7208,7 +7208,7 @@
         <v>1290.147315020415</v>
       </c>
       <c r="V38" t="n">
-        <v>1218.702932027818</v>
+        <v>1218.702932027817</v>
       </c>
       <c r="W38" t="n">
         <v>1130.069983159852</v>
@@ -7217,7 +7217,7 @@
         <v>1019.329710585887</v>
       </c>
       <c r="Y38" t="n">
-        <v>885.8592833414741</v>
+        <v>885.8592833414739</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>375.9953368064129</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="C39" t="n">
-        <v>186.5830625393766</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="D39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="E39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="F39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="G39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="H39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="I39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="J39" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="K39" t="n">
         <v>64.51154014421428</v>
@@ -7278,25 +7278,25 @@
         <v>789.1034201068396</v>
       </c>
       <c r="S39" t="n">
-        <v>789.1034201068396</v>
+        <v>595.6648358264716</v>
       </c>
       <c r="T39" t="n">
-        <v>789.1034201068396</v>
+        <v>525.2286259351531</v>
       </c>
       <c r="U39" t="n">
-        <v>789.1034201068396</v>
+        <v>285.604623114482</v>
       </c>
       <c r="V39" t="n">
-        <v>789.1034201068396</v>
+        <v>42.52490501811604</v>
       </c>
       <c r="W39" t="n">
-        <v>772.3814613891318</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="X39" t="n">
-        <v>772.3814613891318</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="Y39" t="n">
-        <v>554.5311897333479</v>
+        <v>25.80294630040829</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="C40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="D40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="E40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="F40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="G40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="H40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="I40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="J40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="K40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="L40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="M40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="N40" t="n">
-        <v>25.8029463004083</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="P40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2649280986151</v>
+        <v>105.2649280986149</v>
       </c>
       <c r="U40" t="n">
-        <v>66.36947422248355</v>
+        <v>66.36947422248345</v>
       </c>
       <c r="V40" t="n">
-        <v>66.36947422248355</v>
+        <v>66.36947422248345</v>
       </c>
       <c r="W40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="X40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.8029463004083</v>
+        <v>25.80294630040829</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>797.4263119949495</v>
+        <v>797.426311994943</v>
       </c>
       <c r="C41" t="n">
-        <v>686.7882927313133</v>
+        <v>686.7882927313068</v>
       </c>
       <c r="D41" t="n">
-        <v>588.7092004767192</v>
+        <v>588.7092004767126</v>
       </c>
       <c r="E41" t="n">
-        <v>479.1405158205405</v>
+        <v>456.5828835560487</v>
       </c>
       <c r="F41" t="n">
-        <v>314.9734538712128</v>
+        <v>292.415821606721</v>
       </c>
       <c r="G41" t="n">
-        <v>135.0183007647893</v>
+        <v>112.4606685002978</v>
       </c>
       <c r="H41" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I41" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J41" t="n">
-        <v>190.672110395267</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="K41" t="n">
-        <v>423.3765626191581</v>
+        <v>156.9801832956493</v>
       </c>
       <c r="L41" t="n">
-        <v>471.4586441268501</v>
+        <v>443.3293845304185</v>
       </c>
       <c r="M41" t="n">
-        <v>553.8351839139399</v>
+        <v>763.9730440445855</v>
       </c>
       <c r="N41" t="n">
-        <v>658.2804724889833</v>
+        <v>1079.107206077534</v>
       </c>
       <c r="O41" t="n">
-        <v>932.2216018249962</v>
+        <v>1353.048335413547</v>
       </c>
       <c r="P41" t="n">
-        <v>1156.788090790513</v>
+        <v>1353.048335413547</v>
       </c>
       <c r="Q41" t="n">
-        <v>1307.172096013286</v>
+        <v>1353.048335413547</v>
       </c>
       <c r="R41" t="n">
-        <v>1353.048335413553</v>
+        <v>1353.048335413547</v>
       </c>
       <c r="S41" t="n">
-        <v>1366.270194279972</v>
+        <v>1366.270194279966</v>
       </c>
       <c r="T41" t="n">
-        <v>1384.333851501329</v>
+        <v>1384.333851501322</v>
       </c>
       <c r="U41" t="n">
-        <v>1374.762148333347</v>
+        <v>1374.762148333341</v>
       </c>
       <c r="V41" t="n">
-        <v>1293.746062172768</v>
+        <v>1293.746062172762</v>
       </c>
       <c r="W41" t="n">
-        <v>1195.541410136821</v>
+        <v>1195.541410136814</v>
       </c>
       <c r="X41" t="n">
-        <v>1075.229434394874</v>
+        <v>1075.229434394868</v>
       </c>
       <c r="Y41" t="n">
-        <v>932.1873039824791</v>
+        <v>932.1873039824727</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.0590526872625</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="C42" t="n">
-        <v>154.6467784202262</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="D42" t="n">
-        <v>154.6467784202262</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="E42" t="n">
-        <v>154.6467784202262</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="F42" t="n">
-        <v>154.6467784202262</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="G42" t="n">
-        <v>154.6467784202262</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="H42" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I42" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J42" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="K42" t="n">
-        <v>66.39527087383254</v>
+        <v>66.39527087383244</v>
       </c>
       <c r="L42" t="n">
         <v>184.730294568615</v>
       </c>
       <c r="M42" t="n">
-        <v>367.5763499354002</v>
+        <v>367.5763499354001</v>
       </c>
       <c r="N42" t="n">
-        <v>573.6816858792056</v>
+        <v>573.6816858792055</v>
       </c>
       <c r="O42" t="n">
-        <v>706.4807199617075</v>
+        <v>706.4807199617073</v>
       </c>
       <c r="P42" t="n">
         <v>790.9871508364579</v>
@@ -7518,22 +7518,22 @@
         <v>790.9871508364579</v>
       </c>
       <c r="T42" t="n">
-        <v>790.9871508364579</v>
+        <v>762.3499421850786</v>
       </c>
       <c r="U42" t="n">
-        <v>551.3631480157868</v>
+        <v>522.7259393644075</v>
       </c>
       <c r="V42" t="n">
-        <v>548.8885674998871</v>
+        <v>522.7259393644075</v>
       </c>
       <c r="W42" t="n">
-        <v>522.5949056141976</v>
+        <v>253.3273700946988</v>
       </c>
       <c r="X42" t="n">
-        <v>522.5949056141976</v>
+        <v>253.3273700946988</v>
       </c>
       <c r="Y42" t="n">
-        <v>522.5949056141976</v>
+        <v>27.68667703002645</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="C43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="D43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="E43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="F43" t="n">
-        <v>55.59297978216964</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="G43" t="n">
-        <v>55.59297978216964</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="H43" t="n">
-        <v>55.59297978216964</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I43" t="n">
-        <v>130.7720216028541</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="K43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="L43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="N43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="O43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="P43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.7720216028541</v>
+        <v>71.71598897459934</v>
       </c>
       <c r="R43" t="n">
-        <v>130.7720216028541</v>
+        <v>108.7614250712913</v>
       </c>
       <c r="S43" t="n">
-        <v>130.7720216028541</v>
+        <v>114.0123122669837</v>
       </c>
       <c r="T43" t="n">
         <v>130.7720216028541</v>
       </c>
       <c r="U43" t="n">
-        <v>82.30486455874092</v>
+        <v>82.30486455874086</v>
       </c>
       <c r="V43" t="n">
-        <v>77.82490812008345</v>
+        <v>77.82490812008336</v>
       </c>
       <c r="W43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="X43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>797.4263119949496</v>
+        <v>797.4263119949438</v>
       </c>
       <c r="C44" t="n">
-        <v>686.7882927313135</v>
+        <v>686.7882927313076</v>
       </c>
       <c r="D44" t="n">
-        <v>588.7092004767192</v>
+        <v>588.709200476713</v>
       </c>
       <c r="E44" t="n">
-        <v>456.5828835560551</v>
+        <v>456.5828835560491</v>
       </c>
       <c r="F44" t="n">
-        <v>314.9734538712128</v>
+        <v>314.9734538712127</v>
       </c>
       <c r="G44" t="n">
-        <v>135.0183007647893</v>
+        <v>135.0183007647892</v>
       </c>
       <c r="H44" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I44" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J44" t="n">
-        <v>190.672110395267</v>
+        <v>190.6721103952668</v>
       </c>
       <c r="K44" t="n">
-        <v>423.3765626191581</v>
+        <v>423.376562619158</v>
       </c>
       <c r="L44" t="n">
-        <v>709.7257638539273</v>
+        <v>709.7257638539272</v>
       </c>
       <c r="M44" t="n">
-        <v>805.9799191486291</v>
+        <v>792.1023036410171</v>
       </c>
       <c r="N44" t="n">
-        <v>1121.114081181578</v>
+        <v>1107.236465673966</v>
       </c>
       <c r="O44" t="n">
-        <v>1156.788090790513</v>
+        <v>1156.788090790507</v>
       </c>
       <c r="P44" t="n">
-        <v>1156.788090790513</v>
+        <v>1156.788090790507</v>
       </c>
       <c r="Q44" t="n">
-        <v>1307.172096013286</v>
+        <v>1307.17209601328</v>
       </c>
       <c r="R44" t="n">
-        <v>1353.048335413553</v>
+        <v>1353.048335413547</v>
       </c>
       <c r="S44" t="n">
-        <v>1366.270194279972</v>
+        <v>1366.270194279966</v>
       </c>
       <c r="T44" t="n">
-        <v>1384.333851501329</v>
+        <v>1384.333851501322</v>
       </c>
       <c r="U44" t="n">
-        <v>1374.762148333347</v>
+        <v>1374.762148333341</v>
       </c>
       <c r="V44" t="n">
-        <v>1293.746062172768</v>
+        <v>1293.746062172762</v>
       </c>
       <c r="W44" t="n">
-        <v>1195.541410136821</v>
+        <v>1195.541410136815</v>
       </c>
       <c r="X44" t="n">
-        <v>1075.229434394874</v>
+        <v>1075.229434394868</v>
       </c>
       <c r="Y44" t="n">
-        <v>932.1873039824793</v>
+        <v>932.1873039824735</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>396.926814973198</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="C45" t="n">
-        <v>396.926814973198</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="D45" t="n">
-        <v>236.1466987342297</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="E45" t="n">
-        <v>62.58349485564418</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="F45" t="n">
-        <v>62.58349485564418</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="G45" t="n">
-        <v>62.58349485564418</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="H45" t="n">
-        <v>62.58349485564418</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I45" t="n">
-        <v>62.58349485564418</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J45" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="K45" t="n">
-        <v>66.39527087383254</v>
+        <v>66.39527087383244</v>
       </c>
       <c r="L45" t="n">
         <v>184.730294568615</v>
       </c>
       <c r="M45" t="n">
-        <v>367.5763499354002</v>
+        <v>367.5763499354001</v>
       </c>
       <c r="N45" t="n">
-        <v>573.6816858792056</v>
+        <v>573.6816858792055</v>
       </c>
       <c r="O45" t="n">
-        <v>706.4807199617075</v>
+        <v>706.4807199617073</v>
       </c>
       <c r="P45" t="n">
         <v>790.9871508364579</v>
       </c>
       <c r="Q45" t="n">
-        <v>784.6494058836146</v>
+        <v>790.9871508364579</v>
       </c>
       <c r="R45" t="n">
-        <v>648.8611699235598</v>
+        <v>790.9871508364579</v>
       </c>
       <c r="S45" t="n">
-        <v>648.8611699235598</v>
+        <v>597.5485665560899</v>
       </c>
       <c r="T45" t="n">
-        <v>648.8611699235598</v>
+        <v>380.4252000431949</v>
       </c>
       <c r="U45" t="n">
-        <v>648.8611699235598</v>
+        <v>232.516191842651</v>
       </c>
       <c r="V45" t="n">
-        <v>648.8611699235598</v>
+        <v>232.516191842651</v>
       </c>
       <c r="W45" t="n">
-        <v>622.5675080378703</v>
+        <v>206.2225299569616</v>
       </c>
       <c r="X45" t="n">
-        <v>622.5675080378703</v>
+        <v>206.2225299569616</v>
       </c>
       <c r="Y45" t="n">
-        <v>396.926814973198</v>
+        <v>206.2225299569616</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="C46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="D46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="E46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="F46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="G46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="H46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="I46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="J46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="K46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="L46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="M46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="N46" t="n">
-        <v>27.68667703002657</v>
+        <v>130.7720216028541</v>
       </c>
       <c r="O46" t="n">
-        <v>27.68667703002657</v>
+        <v>130.7720216028541</v>
       </c>
       <c r="P46" t="n">
-        <v>27.68667703002657</v>
+        <v>130.7720216028541</v>
       </c>
       <c r="Q46" t="n">
         <v>130.7720216028541</v>
@@ -7837,19 +7837,19 @@
         <v>130.7720216028541</v>
       </c>
       <c r="U46" t="n">
-        <v>82.30486455874092</v>
+        <v>82.30486455874086</v>
       </c>
       <c r="V46" t="n">
-        <v>77.82490812008345</v>
+        <v>77.82490812008336</v>
       </c>
       <c r="W46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="X46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.68667703002657</v>
+        <v>27.68667703002645</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.2738838429328</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,10 +8778,10 @@
         <v>245.1142463846952</v>
       </c>
       <c r="N12" t="n">
-        <v>148.4240495406648</v>
+        <v>230.457000844247</v>
       </c>
       <c r="O12" t="n">
-        <v>249.1126947178174</v>
+        <v>127.9801536730172</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.2738838429328</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>163.081295081113</v>
+        <v>245.1142463846952</v>
       </c>
       <c r="N15" t="n">
-        <v>230.457000844247</v>
+        <v>109.3244597994466</v>
       </c>
       <c r="O15" t="n">
-        <v>249.1126947178173</v>
+        <v>249.1126947178174</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9249,10 +9249,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>123.9817053398949</v>
+        <v>245.1142463846952</v>
       </c>
       <c r="N18" t="n">
-        <v>230.457000844247</v>
+        <v>109.3244597994466</v>
       </c>
       <c r="O18" t="n">
         <v>249.1126947178174</v>
@@ -9480,16 +9480,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>169.7712595037774</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.7742167922148</v>
       </c>
       <c r="M21" t="n">
         <v>245.1142463846952</v>
       </c>
       <c r="N21" t="n">
-        <v>109.3244597994466</v>
+        <v>230.457000844247</v>
       </c>
       <c r="O21" t="n">
         <v>249.1126947178174</v>
@@ -9720,13 +9720,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>120.7742167922148</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
         <v>245.1142463846952</v>
       </c>
       <c r="N24" t="n">
-        <v>228.8547867638734</v>
+        <v>109.3244597994466</v>
       </c>
       <c r="O24" t="n">
         <v>249.1126947178174</v>
@@ -23270,13 +23270,13 @@
         <v>208.8650270876801</v>
       </c>
       <c r="G11" t="n">
-        <v>118.8352349143257</v>
+        <v>224.4952373332048</v>
       </c>
       <c r="H11" t="n">
-        <v>24.56759296159064</v>
+        <v>24.56759296159062</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.33963575784563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.98422276146255</v>
       </c>
       <c r="T11" t="n">
-        <v>28.09351735243533</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.5455610568187</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5622412734336</v>
+        <v>15.53189097976338</v>
       </c>
       <c r="X11" t="n">
-        <v>37.41814144870264</v>
+        <v>135.1037092134396</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9513448661166</v>
+        <v>187.9513448661165</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>179.7530178255</v>
       </c>
       <c r="C14" t="n">
-        <v>27.84092453517533</v>
+        <v>155.8712748288455</v>
       </c>
       <c r="D14" t="n">
         <v>143.4379370898939</v>
@@ -23507,13 +23507,13 @@
         <v>208.8650270876801</v>
       </c>
       <c r="G14" t="n">
-        <v>146.9287522667612</v>
+        <v>224.4952373332048</v>
       </c>
       <c r="H14" t="n">
-        <v>24.56759296159064</v>
+        <v>128.6286553722065</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.33963575784566</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.09351735243533</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>126.5455610568187</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5622412734336</v>
+        <v>15.5318909797634</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4484917423728</v>
+        <v>37.41814144870264</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9513448661166</v>
+        <v>59.9209945724464</v>
       </c>
     </row>
     <row r="15">
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>22.33205594184091</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>22.33205594184647</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>22.33205594184057</v>
+        <v>22.33205594184645</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675918.8678083399</v>
+        <v>675918.8678083397</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775416.2952242692</v>
+        <v>775416.2952242688</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775416.2952242692</v>
+        <v>775416.2952242688</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>837835.3954176367</v>
       </c>
       <c r="C2" t="n">
-        <v>837835.3954176365</v>
+        <v>837835.3954176367</v>
       </c>
       <c r="D2" t="n">
-        <v>837835.3954176365</v>
+        <v>837835.3954176367</v>
       </c>
       <c r="E2" t="n">
-        <v>723679.3346397782</v>
+        <v>723679.3346397779</v>
       </c>
       <c r="F2" t="n">
-        <v>723679.3346397779</v>
+        <v>723679.3346397775</v>
       </c>
       <c r="G2" t="n">
-        <v>839532.6214156087</v>
+        <v>839532.6214156089</v>
       </c>
       <c r="H2" t="n">
-        <v>839532.6214156087</v>
+        <v>839532.6214156094</v>
       </c>
       <c r="I2" t="n">
-        <v>839532.6214156091</v>
+        <v>839532.6214156089</v>
       </c>
       <c r="J2" t="n">
+        <v>839532.6214156096</v>
+      </c>
+      <c r="K2" t="n">
         <v>839532.6214156093</v>
       </c>
-      <c r="K2" t="n">
-        <v>839532.6214156095</v>
-      </c>
       <c r="L2" t="n">
-        <v>839532.6214156094</v>
+        <v>839532.6214156093</v>
       </c>
       <c r="M2" t="n">
-        <v>839532.6214156095</v>
+        <v>839532.6214156096</v>
       </c>
       <c r="N2" t="n">
         <v>839532.6214156096</v>
@@ -26353,7 +26353,7 @@
         <v>837843.871345287</v>
       </c>
       <c r="P2" t="n">
-        <v>837843.8713452872</v>
+        <v>837843.8713452866</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99550.00599627307</v>
+        <v>99550.00599627303</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155258.9130114254</v>
+        <v>155258.9130114255</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99550.00599627307</v>
+        <v>99550.00599627297</v>
       </c>
       <c r="M3" t="n">
-        <v>29700.78257228661</v>
+        <v>29700.78257228668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68954.81912725064</v>
+        <v>68954.81912725026</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>446099.6448485553</v>
       </c>
       <c r="E4" t="n">
+        <v>339642.2848420787</v>
+      </c>
+      <c r="F4" t="n">
         <v>339642.2848420786</v>
-      </c>
-      <c r="F4" t="n">
-        <v>339642.2848420787</v>
       </c>
       <c r="G4" t="n">
         <v>409131.0406955861</v>
       </c>
       <c r="H4" t="n">
-        <v>409131.0406955861</v>
+        <v>409131.040695586</v>
       </c>
       <c r="I4" t="n">
         <v>409131.0406955861</v>
@@ -26445,19 +26445,19 @@
         <v>407623.3441114132</v>
       </c>
       <c r="L4" t="n">
-        <v>407623.3441114132</v>
+        <v>407623.3441114131</v>
       </c>
       <c r="M4" t="n">
-        <v>407056.4826018423</v>
+        <v>407056.4826018421</v>
       </c>
       <c r="N4" t="n">
         <v>407056.4826018421</v>
       </c>
       <c r="O4" t="n">
-        <v>406144.6606008389</v>
+        <v>406144.6606008386</v>
       </c>
       <c r="P4" t="n">
-        <v>406144.6606008389</v>
+        <v>406144.6606008385</v>
       </c>
     </row>
     <row r="5">
@@ -26491,13 +26491,13 @@
         <v>36835.8508829866</v>
       </c>
       <c r="J5" t="n">
-        <v>47555.97290810319</v>
+        <v>47555.9729081032</v>
       </c>
       <c r="K5" t="n">
         <v>47555.9729081032</v>
       </c>
       <c r="L5" t="n">
-        <v>47555.9729081032</v>
+        <v>47555.97290810318</v>
       </c>
       <c r="M5" t="n">
         <v>42892.871472835</v>
@@ -26506,10 +26506,10 @@
         <v>42892.871472835</v>
       </c>
       <c r="O5" t="n">
-        <v>43527.87014885213</v>
+        <v>43527.87014885203</v>
       </c>
       <c r="P5" t="n">
-        <v>43527.87014885213</v>
+        <v>43527.87014885203</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358108.1505690814</v>
+        <v>358103.6841848762</v>
       </c>
       <c r="C6" t="n">
-        <v>358108.1505690812</v>
+        <v>358103.6841848763</v>
       </c>
       <c r="D6" t="n">
-        <v>358108.1505690812</v>
+        <v>358103.6841848762</v>
       </c>
       <c r="E6" t="n">
-        <v>80945.44034774603</v>
+        <v>80640.56327728291</v>
       </c>
       <c r="F6" t="n">
-        <v>357662.5357323384</v>
+        <v>357357.6586618754</v>
       </c>
       <c r="G6" t="n">
-        <v>294015.7238407629</v>
+        <v>294015.7238407632</v>
       </c>
       <c r="H6" t="n">
-        <v>393565.7298370359</v>
+        <v>393565.7298370367</v>
       </c>
       <c r="I6" t="n">
-        <v>393565.7298370365</v>
+        <v>393565.7298370362</v>
       </c>
       <c r="J6" t="n">
-        <v>229094.3913846674</v>
+        <v>229094.3913846677</v>
       </c>
       <c r="K6" t="n">
-        <v>384353.3043960931</v>
+        <v>384353.3043960929</v>
       </c>
       <c r="L6" t="n">
-        <v>284803.29839982</v>
+        <v>284803.2983998199</v>
       </c>
       <c r="M6" t="n">
-        <v>359882.4847686457</v>
+        <v>359882.4847686458</v>
       </c>
       <c r="N6" t="n">
         <v>389583.2673409324</v>
       </c>
       <c r="O6" t="n">
-        <v>319216.5214683453</v>
+        <v>319212.0773892137</v>
       </c>
       <c r="P6" t="n">
-        <v>388171.3405955962</v>
+        <v>388166.8965164636</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="F2" t="n">
         <v>194.3342225523333</v>
       </c>
       <c r="G2" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="H2" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="I2" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="J2" t="n">
         <v>213.0238662311226</v>
@@ -26719,7 +26719,7 @@
         <v>250.1498444464809</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="O2" t="n">
         <v>240.673858310179</v>
@@ -26747,7 +26747,7 @@
         <v>103.3387620070409</v>
       </c>
       <c r="F3" t="n">
-        <v>103.338762007041</v>
+        <v>103.3387620070409</v>
       </c>
       <c r="G3" t="n">
         <v>103.3387620070409</v>
@@ -26774,10 +26774,10 @@
         <v>103.3387620070409</v>
       </c>
       <c r="O3" t="n">
-        <v>103.3387620070409</v>
+        <v>103.338762007041</v>
       </c>
       <c r="P3" t="n">
-        <v>103.3387620070409</v>
+        <v>103.338762007041</v>
       </c>
     </row>
     <row r="4">
@@ -26823,13 +26823,13 @@
         <v>322.5368287551038</v>
       </c>
       <c r="N4" t="n">
-        <v>322.5368287551038</v>
+        <v>322.5368287551037</v>
       </c>
       <c r="O4" t="n">
-        <v>346.0834628753321</v>
+        <v>346.0834628753306</v>
       </c>
       <c r="P4" t="n">
-        <v>346.0834628753321</v>
+        <v>346.0834628753306</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>124.4375074953414</v>
+        <v>124.4375074953413</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.58635873578129</v>
+        <v>88.58635873578135</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>124.4375074953414</v>
+        <v>124.4375074953412</v>
       </c>
       <c r="M2" t="n">
-        <v>37.12597821535826</v>
+        <v>37.12597821535834</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>79.11037259947946</v>
+        <v>79.1103725994794</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>322.5368287551037</v>
+        <v>322.5368287551038</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.54663412022836</v>
+        <v>23.54663412022694</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>124.4375074953414</v>
+        <v>124.4375074953413</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.58635873578129</v>
+        <v>88.58635873578135</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3342225523333</v>
+        <v>159.119126290747</v>
       </c>
       <c r="K11" t="n">
-        <v>5.618856063824303</v>
+        <v>133.6492063574945</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>50.38687321703249</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.47774839967659</v>
+        <v>13.83902097127297</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3342225523333</v>
+        <v>88.77082273162085</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.72014410399558</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>180.9439340841716</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.2029016953088</v>
       </c>
       <c r="J12" t="n">
-        <v>52.03472238375154</v>
+        <v>52.03472238375156</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.274367503314927</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.40000330678402</v>
+        <v>134.4303536004542</v>
       </c>
       <c r="S12" t="n">
-        <v>191.5041984375643</v>
+        <v>63.47384814389417</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3342225523333</v>
+        <v>147.7196742523848</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3342225523333</v>
+        <v>112.6185706217321</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
     </row>
     <row r="13">
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3342225523333</v>
+        <v>168.6968665407192</v>
       </c>
       <c r="H13" t="n">
         <v>165.7896485461958</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7354322286795</v>
+        <v>164.7354322286796</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3342225523333</v>
+        <v>119.9632846620736</v>
       </c>
       <c r="K13" t="n">
         <v>66.5758966972104</v>
       </c>
       <c r="L13" t="n">
-        <v>114.4490138233166</v>
+        <v>31.57074577790236</v>
       </c>
       <c r="M13" t="n">
-        <v>24.60420806007858</v>
+        <v>79.46041971369638</v>
       </c>
       <c r="N13" t="n">
-        <v>15.92206765262701</v>
+        <v>15.92206765262702</v>
       </c>
       <c r="O13" t="n">
         <v>164.9568016344909</v>
       </c>
       <c r="P13" t="n">
-        <v>58.00589732653241</v>
+        <v>186.0362476202026</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3342225523333</v>
+        <v>194.3342225523334</v>
       </c>
     </row>
     <row r="14">
@@ -28348,13 +28348,13 @@
         <v>194.3342225523333</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3342225523333</v>
+        <v>76.04210743619882</v>
       </c>
       <c r="K14" t="n">
-        <v>5.618856063824289</v>
+        <v>5.618856063824303</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>41.46789491824947</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>91.99599715333102</v>
       </c>
       <c r="P14" t="n">
-        <v>51.47774839967645</v>
+        <v>141.8693712649431</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.3342225523333</v>
+        <v>88.77082273162083</v>
       </c>
       <c r="R14" t="n">
         <v>194.3342225523333</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>77.18800563736055</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>43.79722154612952</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.6905003762977</v>
       </c>
       <c r="I15" t="n">
-        <v>107.2029016953087</v>
+        <v>107.2029016953088</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.03472238375154</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.27436750331492</v>
+        <v>6.274367503314927</v>
       </c>
       <c r="R15" t="n">
         <v>134.4303536004542</v>
@@ -28457,7 +28457,7 @@
         <v>191.5041984375643</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3342225523333</v>
+        <v>86.92178255409584</v>
       </c>
       <c r="U15" t="n">
         <v>194.3342225523333</v>
@@ -28466,10 +28466,10 @@
         <v>194.3342225523333</v>
       </c>
       <c r="W15" t="n">
+        <v>138.6742332833414</v>
+      </c>
+      <c r="X15" t="n">
         <v>194.3342225523333</v>
-      </c>
-      <c r="X15" t="n">
-        <v>111.7643772022204</v>
       </c>
       <c r="Y15" t="n">
         <v>194.3342225523333</v>
@@ -28485,46 +28485,46 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>194.3342225523333</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>194.3342225523333</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.3342225523333</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3342225523333</v>
       </c>
       <c r="G16" t="n">
+        <v>168.6968665407192</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165.7896485461958</v>
+      </c>
+      <c r="I16" t="n">
+        <v>164.7354322286795</v>
+      </c>
+      <c r="J16" t="n">
         <v>194.3342225523333</v>
       </c>
-      <c r="H16" t="n">
-        <v>194.3342225523333</v>
-      </c>
-      <c r="I16" t="n">
-        <v>194.3342225523333</v>
-      </c>
-      <c r="J16" t="n">
-        <v>119.9632846620736</v>
-      </c>
       <c r="K16" t="n">
-        <v>66.57589669721038</v>
+        <v>85.31903743487678</v>
       </c>
       <c r="L16" t="n">
-        <v>31.57074577790233</v>
+        <v>31.57074577790234</v>
       </c>
       <c r="M16" t="n">
-        <v>114.1259464402332</v>
+        <v>24.60420806007858</v>
       </c>
       <c r="N16" t="n">
-        <v>15.922067652627</v>
+        <v>143.9524179462971</v>
       </c>
       <c r="O16" t="n">
-        <v>164.9568016344909</v>
+        <v>36.92645134082072</v>
       </c>
       <c r="P16" t="n">
-        <v>58.0058973265324</v>
+        <v>58.00589732653241</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8897118960778</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="C17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="D17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="E17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="G17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="I17" t="n">
-        <v>318.7717300476747</v>
+        <v>240.673858310179</v>
       </c>
       <c r="J17" t="n">
-        <v>76.04210743619882</v>
+        <v>204.072457729869</v>
       </c>
       <c r="K17" t="n">
-        <v>5.618856063824303</v>
+        <v>133.6492063574944</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>194.3342225523333</v>
       </c>
       <c r="S17" t="n">
-        <v>318.7717300476747</v>
+        <v>232.7519870917062</v>
       </c>
       <c r="T17" t="n">
-        <v>245.748940197451</v>
+        <v>222.4277399047687</v>
       </c>
       <c r="U17" t="n">
-        <v>318.7717300476747</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="V17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="W17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="X17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>63.98136185900113</v>
       </c>
       <c r="C18" t="n">
-        <v>59.48780123069577</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>20.70959227370844</v>
+        <v>148.7399425673786</v>
       </c>
       <c r="H18" t="n">
         <v>125.6905003762977</v>
@@ -28688,16 +28688,16 @@
         <v>6.274367503314927</v>
       </c>
       <c r="R18" t="n">
-        <v>134.4303536004542</v>
+        <v>6.40000330678402</v>
       </c>
       <c r="S18" t="n">
         <v>191.5041984375643</v>
       </c>
       <c r="T18" t="n">
-        <v>214.952132847766</v>
+        <v>86.92178255409584</v>
       </c>
       <c r="U18" t="n">
-        <v>124.4586302537997</v>
+        <v>237.2277627924644</v>
       </c>
       <c r="V18" t="n">
         <v>112.6185706217321</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="C20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="D20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="E20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="G20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="I20" t="n">
         <v>240.673858310179</v>
@@ -28825,7 +28825,7 @@
         <v>76.04210743619882</v>
       </c>
       <c r="K20" t="n">
-        <v>5.618856063824303</v>
+        <v>51.22230619985495</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>88.77082273162083</v>
       </c>
       <c r="R20" t="n">
-        <v>295.7532945825114</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="S20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="T20" t="n">
         <v>222.4277399047687</v>
       </c>
       <c r="U20" t="n">
-        <v>318.7717300476747</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="V20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="W20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="X20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
     </row>
     <row r="21">
@@ -28880,16 +28880,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>74.74901898570127</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>31.14196478290839</v>
+        <v>46.40318253791393</v>
       </c>
       <c r="E21" t="n">
-        <v>43.79722154612952</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>30.79308882625818</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7399425673786</v>
@@ -28925,7 +28925,7 @@
         <v>6.274367503314927</v>
       </c>
       <c r="R21" t="n">
-        <v>134.4303536004542</v>
+        <v>6.40000330678402</v>
       </c>
       <c r="S21" t="n">
         <v>191.5041984375643</v>
@@ -28937,13 +28937,13 @@
         <v>237.2277627924644</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>112.6185706217321</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>89.28256414580045</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="C23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="D23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="E23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="F23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="G23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="H23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="I23" t="n">
-        <v>240.673858310179</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="J23" t="n">
         <v>76.04210743619882</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.83902097127294</v>
+        <v>141.8693712649431</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.77082273162083</v>
+        <v>144.1368430657056</v>
       </c>
       <c r="R23" t="n">
-        <v>295.7532945825114</v>
+        <v>194.3342225523333</v>
       </c>
       <c r="S23" t="n">
-        <v>318.7717300476747</v>
+        <v>227.3184453137959</v>
       </c>
       <c r="T23" t="n">
         <v>222.4277399047687</v>
       </c>
       <c r="U23" t="n">
-        <v>318.7717300476747</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="V23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="W23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="X23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.7717300476747</v>
+        <v>318.7717300476746</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>74.74901898570131</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29162,7 +29162,7 @@
         <v>6.274367503314927</v>
       </c>
       <c r="R24" t="n">
-        <v>6.40000330678402</v>
+        <v>6.400003306784015</v>
       </c>
       <c r="S24" t="n">
         <v>191.5041984375643</v>
@@ -29171,16 +29171,16 @@
         <v>86.92178255409584</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2277627924644</v>
+        <v>109.1974124987942</v>
       </c>
       <c r="V24" t="n">
-        <v>112.6185706217321</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>104.543781900806</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29311,7 +29311,7 @@
         <v>213.0238662311226</v>
       </c>
       <c r="O26" t="n">
-        <v>213.0238662311227</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="P26" t="n">
         <v>213.0238662311226</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7399425673786</v>
       </c>
       <c r="H27" t="n">
         <v>125.6905003762977</v>
@@ -29396,19 +29396,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.274367503314927</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.4303536004542</v>
+        <v>99.1708715478596</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5041984375643</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="U27" t="n">
-        <v>154.2314755117842</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>213.0238662311226</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6968665407192</v>
@@ -29460,19 +29460,19 @@
         <v>66.5758966972104</v>
       </c>
       <c r="L28" t="n">
-        <v>31.57074577790234</v>
+        <v>199.5060031094888</v>
       </c>
       <c r="M28" t="n">
         <v>24.60420806007858</v>
       </c>
       <c r="N28" t="n">
-        <v>22.583588047359</v>
+        <v>15.92206765262701</v>
       </c>
       <c r="O28" t="n">
         <v>36.92645134082072</v>
       </c>
       <c r="P28" t="n">
-        <v>213.0238662311226</v>
+        <v>58.00589732653241</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8897118960778</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29612,7 +29612,7 @@
         <v>107.2029016953088</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.03472238375154</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29642,16 +29642,16 @@
         <v>191.5041984375643</v>
       </c>
       <c r="T30" t="n">
+        <v>11.76590044772041</v>
+      </c>
+      <c r="U30" t="n">
         <v>213.0238662311226</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>213.0238662311226</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>186.6995660745935</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.0238662311226</v>
@@ -29670,13 +29670,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>213.0238662311226</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.0238662311226</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>213.0238662311226</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29700,13 +29700,13 @@
         <v>31.57074577790234</v>
       </c>
       <c r="M31" t="n">
-        <v>24.60420806007858</v>
+        <v>84.28326648177486</v>
       </c>
       <c r="N31" t="n">
-        <v>56.17327436432071</v>
+        <v>15.92206765262701</v>
       </c>
       <c r="O31" t="n">
-        <v>36.92645134082072</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="P31" t="n">
         <v>58.00589732653241</v>
@@ -29715,7 +29715,7 @@
         <v>126.8897118960778</v>
       </c>
       <c r="R31" t="n">
-        <v>213.0238662311226</v>
+        <v>203.254225889278</v>
       </c>
       <c r="S31" t="n">
         <v>213.0238662311226</v>
@@ -29773,7 +29773,7 @@
         <v>213.0238662311226</v>
       </c>
       <c r="K32" t="n">
-        <v>213.0238662311226</v>
+        <v>213.0238662311233</v>
       </c>
       <c r="L32" t="n">
         <v>213.0238662311226</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>91.99582693698062</v>
       </c>
       <c r="G33" t="n">
         <v>148.7399425673786</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.274367503314927</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.4303536004542</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5041984375643</v>
@@ -29885,13 +29885,13 @@
         <v>213.0238662311226</v>
       </c>
       <c r="V33" t="n">
-        <v>5.49153294440535</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="Y33" t="n">
         <v>213.0238662311226</v>
@@ -29922,10 +29922,10 @@
         <v>168.6968665407192</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7896485461958</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7354322286795</v>
+        <v>213.0238662311226</v>
       </c>
       <c r="J34" t="n">
         <v>119.9632846620736</v>
@@ -29940,16 +29940,16 @@
         <v>24.60420806007858</v>
       </c>
       <c r="N34" t="n">
-        <v>15.92206765262701</v>
+        <v>146.4062489354115</v>
       </c>
       <c r="O34" t="n">
         <v>36.92645134082072</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8785759616412</v>
+        <v>58.00589732653241</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.0238662311226</v>
+        <v>126.8897118960778</v>
       </c>
       <c r="R34" t="n">
         <v>213.0238662311226</v>
@@ -30004,40 +30004,40 @@
         <v>250.1498444464809</v>
       </c>
       <c r="I35" t="n">
-        <v>250.1498444464809</v>
+        <v>240.673858310179</v>
       </c>
       <c r="J35" t="n">
-        <v>250.1498444464809</v>
+        <v>76.04210743619882</v>
       </c>
       <c r="K35" t="n">
         <v>250.1498444464809</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>244.8933516784661</v>
       </c>
       <c r="O35" t="n">
-        <v>250.1498444464809</v>
+        <v>236.2715021946309</v>
       </c>
       <c r="P35" t="n">
-        <v>99.48762630852855</v>
+        <v>13.83902097127294</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.1498444464809</v>
+        <v>88.77082273162083</v>
       </c>
       <c r="R35" t="n">
         <v>250.1498444464809</v>
       </c>
       <c r="S35" t="n">
-        <v>250.1498444464809</v>
+        <v>227.3184453137959</v>
       </c>
       <c r="T35" t="n">
-        <v>250.1498444464809</v>
+        <v>222.4277399047687</v>
       </c>
       <c r="U35" t="n">
         <v>250.1498444464809</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,16 +30074,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7399425673786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6905003762977</v>
       </c>
       <c r="I36" t="n">
-        <v>93.30131182719474</v>
+        <v>107.2029016953088</v>
       </c>
       <c r="J36" t="n">
         <v>52.03472238375154</v>
@@ -30110,7 +30110,7 @@
         <v>6.274367503314927</v>
       </c>
       <c r="R36" t="n">
-        <v>134.4303536004542</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5041984375643</v>
@@ -30122,7 +30122,7 @@
         <v>237.2277627924644</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>40.79761054185667</v>
       </c>
       <c r="W36" t="n">
         <v>250.1498444464809</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30180,7 +30180,7 @@
         <v>15.92206765262701</v>
       </c>
       <c r="O37" t="n">
-        <v>36.92645134082072</v>
+        <v>112.1502501577863</v>
       </c>
       <c r="P37" t="n">
         <v>58.00589732653241</v>
@@ -30195,7 +30195,7 @@
         <v>235.3699318498836</v>
       </c>
       <c r="T37" t="n">
-        <v>250.1498444464809</v>
+        <v>223.744858981017</v>
       </c>
       <c r="U37" t="n">
         <v>250.1498444464809</v>
@@ -30207,10 +30207,10 @@
         <v>250.1498444464809</v>
       </c>
       <c r="X37" t="n">
-        <v>250.1498444464809</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.7296971274318</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="C38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="D38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="E38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="F38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="G38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="H38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="I38" t="n">
-        <v>240.673858310179</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="J38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>147.0237507505949</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>239.3282027075382</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>250.1498444464808</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>250.1498444464808</v>
+        <v>13.83902097127294</v>
       </c>
       <c r="Q38" t="n">
-        <v>108.9636124448307</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="R38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="S38" t="n">
-        <v>250.1498444464808</v>
+        <v>227.3184453137959</v>
       </c>
       <c r="T38" t="n">
-        <v>250.1498444464808</v>
+        <v>222.4277399047687</v>
       </c>
       <c r="U38" t="n">
         <v>250.1498444464809</v>
       </c>
       <c r="V38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="W38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="X38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30350,25 +30350,25 @@
         <v>134.4303536004542</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5041984375643</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.952132847766</v>
+        <v>145.2202850553606</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2277627924644</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.712517194799574</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.6968665407192</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7896485461958</v>
+        <v>246.0542766251924</v>
       </c>
       <c r="I40" t="n">
         <v>164.7354322286795</v>
@@ -30417,7 +30417,7 @@
         <v>15.92206765262701</v>
       </c>
       <c r="O40" t="n">
-        <v>117.1910794198175</v>
+        <v>36.92645134082072</v>
       </c>
       <c r="P40" t="n">
         <v>58.00589732653241</v>
@@ -30435,13 +30435,13 @@
         <v>223.744858981017</v>
       </c>
       <c r="U40" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>250.1498444464808</v>
+        <v>250.1498444464809</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,31 +30481,31 @@
         <v>240.673858310179</v>
       </c>
       <c r="J41" t="n">
+        <v>76.04210743619882</v>
+      </c>
+      <c r="K41" t="n">
+        <v>136.2183573422312</v>
+      </c>
+      <c r="L41" t="n">
         <v>240.673858310179</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>240.673858310179</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>27.8568144133051</v>
+        <v>240.673858310179</v>
       </c>
       <c r="O41" t="n">
         <v>240.673858310179</v>
       </c>
       <c r="P41" t="n">
-        <v>240.673858310179</v>
+        <v>13.8390209712729</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.673858310179</v>
+        <v>88.7708227316208</v>
       </c>
       <c r="R41" t="n">
-        <v>240.673858310179</v>
+        <v>194.3342225523333</v>
       </c>
       <c r="S41" t="n">
         <v>240.673858310179</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30554,10 +30554,10 @@
         <v>148.7399425673786</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6905003762977</v>
       </c>
       <c r="I42" t="n">
-        <v>107.2029016953088</v>
+        <v>107.2029016953087</v>
       </c>
       <c r="J42" t="n">
         <v>52.03472238375154</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.274367503314927</v>
+        <v>6.27436750331491</v>
       </c>
       <c r="R42" t="n">
         <v>134.4303536004542</v>
@@ -30590,22 +30590,22 @@
         <v>191.5041984375643</v>
       </c>
       <c r="T42" t="n">
-        <v>214.952132847766</v>
+        <v>186.6012962829005</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>238.1990862046616</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>240.673858310179</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>167.115066816571</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6968665407192</v>
@@ -30636,40 +30636,40 @@
         <v>165.7896485461958</v>
       </c>
       <c r="I43" t="n">
-        <v>240.673858310179</v>
+        <v>164.7354322286795</v>
       </c>
       <c r="J43" t="n">
-        <v>119.9632846620736</v>
+        <v>164.4373371313392</v>
       </c>
       <c r="K43" t="n">
-        <v>66.5758966972104</v>
+        <v>66.57589669721037</v>
       </c>
       <c r="L43" t="n">
-        <v>31.57074577790234</v>
+        <v>31.57074577790232</v>
       </c>
       <c r="M43" t="n">
-        <v>24.60420806007858</v>
+        <v>24.60420806007856</v>
       </c>
       <c r="N43" t="n">
-        <v>15.92206765262701</v>
+        <v>15.92206765262699</v>
       </c>
       <c r="O43" t="n">
-        <v>36.92645134082072</v>
+        <v>36.92645134082071</v>
       </c>
       <c r="P43" t="n">
-        <v>58.00589732653241</v>
+        <v>58.00589732653239</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8897118960778</v>
       </c>
       <c r="R43" t="n">
-        <v>203.254225889278</v>
+        <v>240.673858310179</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3699318498836</v>
+        <v>240.673858310179</v>
       </c>
       <c r="T43" t="n">
-        <v>223.744858981017</v>
+        <v>240.673858310179</v>
       </c>
       <c r="U43" t="n">
         <v>240.673858310179</v>
@@ -30727,16 +30727,16 @@
         <v>240.673858310179</v>
       </c>
       <c r="M44" t="n">
-        <v>14.01779344203223</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.673858310179</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>14.01779344202605</v>
       </c>
       <c r="P44" t="n">
-        <v>13.83902097127294</v>
+        <v>13.8390209712729</v>
       </c>
       <c r="Q44" t="n">
         <v>240.673858310179</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30794,10 +30794,10 @@
         <v>125.6905003762977</v>
       </c>
       <c r="I45" t="n">
-        <v>107.2029016953088</v>
+        <v>107.2029016953087</v>
       </c>
       <c r="J45" t="n">
-        <v>17.48687273639012</v>
+        <v>52.03472238375154</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.27436750331491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.4303536004542</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5041984375643</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.952132847766</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2277627924644</v>
+        <v>90.79784467392594</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30879,25 +30879,25 @@
         <v>119.9632846620736</v>
       </c>
       <c r="K46" t="n">
-        <v>66.5758966972104</v>
+        <v>66.57589669721037</v>
       </c>
       <c r="L46" t="n">
-        <v>31.57074577790234</v>
+        <v>31.57074577790232</v>
       </c>
       <c r="M46" t="n">
-        <v>24.60420806007858</v>
+        <v>24.60420806007856</v>
       </c>
       <c r="N46" t="n">
-        <v>15.92206765262701</v>
+        <v>120.0486783322509</v>
       </c>
       <c r="O46" t="n">
-        <v>36.92645134082072</v>
+        <v>36.92645134082071</v>
       </c>
       <c r="P46" t="n">
-        <v>58.00589732653241</v>
+        <v>58.00589732653239</v>
       </c>
       <c r="Q46" t="n">
-        <v>231.0163225757016</v>
+        <v>126.8897118960778</v>
       </c>
       <c r="R46" t="n">
         <v>203.254225889278</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4154322090735311</v>
+        <v>0.4154322090735309</v>
       </c>
       <c r="H11" t="n">
-        <v>4.254545111174301</v>
+        <v>4.254545111174299</v>
       </c>
       <c r="I11" t="n">
         <v>16.01595024030732</v>
       </c>
       <c r="J11" t="n">
-        <v>35.25928945485465</v>
+        <v>35.25928945485462</v>
       </c>
       <c r="K11" t="n">
-        <v>52.84453486493722</v>
+        <v>52.8445348649372</v>
       </c>
       <c r="L11" t="n">
-        <v>65.55831833337132</v>
+        <v>65.55831833337128</v>
       </c>
       <c r="M11" t="n">
-        <v>72.94626088148271</v>
+        <v>72.94626088148269</v>
       </c>
       <c r="N11" t="n">
-        <v>74.12660764551291</v>
+        <v>74.12660764551286</v>
       </c>
       <c r="O11" t="n">
-        <v>69.99565361653796</v>
+        <v>69.99565361653794</v>
       </c>
       <c r="P11" t="n">
-        <v>59.73967095503516</v>
+        <v>59.73967095503513</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.86200496758931</v>
+        <v>44.86200496758929</v>
       </c>
       <c r="R11" t="n">
-        <v>26.09589350321522</v>
+        <v>26.09589350321521</v>
       </c>
       <c r="S11" t="n">
-        <v>9.466661464263099</v>
+        <v>9.466661464263094</v>
       </c>
       <c r="T11" t="n">
-        <v>1.818554495219383</v>
+        <v>1.818554495219382</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03323457672588248</v>
+        <v>0.03323457672588247</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2222758277132579</v>
+        <v>0.2222758277132578</v>
       </c>
       <c r="H12" t="n">
-        <v>2.146716546599096</v>
+        <v>2.146716546599095</v>
       </c>
       <c r="I12" t="n">
-        <v>7.652917752408221</v>
+        <v>7.652917752408218</v>
       </c>
       <c r="J12" t="n">
-        <v>21.00019124899688</v>
+        <v>21.00019124899687</v>
       </c>
       <c r="K12" t="n">
-        <v>35.89267170578515</v>
+        <v>35.89267170578514</v>
       </c>
       <c r="L12" t="n">
-        <v>48.26212653923172</v>
+        <v>48.26212653923169</v>
       </c>
       <c r="M12" t="n">
-        <v>56.3196252938373</v>
+        <v>56.31962529383728</v>
       </c>
       <c r="N12" t="n">
-        <v>57.81023819108982</v>
+        <v>57.81023819108979</v>
       </c>
       <c r="O12" t="n">
-        <v>52.885073798075</v>
+        <v>52.88507379807497</v>
       </c>
       <c r="P12" t="n">
-        <v>42.44493415342027</v>
+        <v>42.44493415342025</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.37331442880113</v>
+        <v>28.37331442880112</v>
       </c>
       <c r="R12" t="n">
         <v>13.80059919784596</v>
       </c>
       <c r="S12" t="n">
-        <v>4.128676010375642</v>
+        <v>4.12867601037564</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8959275687214207</v>
+        <v>0.8959275687214202</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0146234097179775</v>
+        <v>0.01462340971797749</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1863485872258115</v>
+        <v>0.1863485872258114</v>
       </c>
       <c r="H13" t="n">
-        <v>1.656808348244035</v>
+        <v>1.656808348244034</v>
       </c>
       <c r="I13" t="n">
-        <v>5.604010241299861</v>
+        <v>5.604010241299858</v>
       </c>
       <c r="J13" t="n">
         <v>13.17484511686487</v>
       </c>
       <c r="K13" t="n">
-        <v>21.65031767950791</v>
+        <v>21.6503176795079</v>
       </c>
       <c r="L13" t="n">
-        <v>27.70495268628111</v>
+        <v>27.70495268628109</v>
       </c>
       <c r="M13" t="n">
-        <v>29.2109880866788</v>
+        <v>29.21098808667878</v>
       </c>
       <c r="N13" t="n">
-        <v>28.51641607974625</v>
+        <v>28.51641607974623</v>
       </c>
       <c r="O13" t="n">
-        <v>26.33952576533562</v>
+        <v>26.33952576533561</v>
       </c>
       <c r="P13" t="n">
-        <v>22.53801458592905</v>
+        <v>22.53801458592904</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.60415306306318</v>
+        <v>15.60415306306317</v>
       </c>
       <c r="R13" t="n">
-        <v>8.37891011289876</v>
+        <v>8.378910112898755</v>
       </c>
       <c r="S13" t="n">
-        <v>3.247547651926187</v>
+        <v>3.247547651926185</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7962166908739217</v>
+        <v>0.7962166908739213</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01016446839413519</v>
+        <v>0.01016446839413518</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4154322090735312</v>
+        <v>0.4154322090735311</v>
       </c>
       <c r="H14" t="n">
-        <v>4.254545111174303</v>
+        <v>4.254545111174301</v>
       </c>
       <c r="I14" t="n">
-        <v>16.01595024030733</v>
+        <v>16.01595024030732</v>
       </c>
       <c r="J14" t="n">
         <v>35.25928945485465</v>
       </c>
       <c r="K14" t="n">
-        <v>52.84453486493724</v>
+        <v>52.84453486493722</v>
       </c>
       <c r="L14" t="n">
-        <v>65.55831833337133</v>
+        <v>65.55831833337132</v>
       </c>
       <c r="M14" t="n">
-        <v>72.94626088148274</v>
+        <v>72.94626088148271</v>
       </c>
       <c r="N14" t="n">
-        <v>74.12660764551292</v>
+        <v>74.12660764551291</v>
       </c>
       <c r="O14" t="n">
-        <v>69.99565361653799</v>
+        <v>69.99565361653796</v>
       </c>
       <c r="P14" t="n">
-        <v>59.73967095503518</v>
+        <v>59.73967095503516</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.86200496758933</v>
+        <v>44.86200496758931</v>
       </c>
       <c r="R14" t="n">
-        <v>26.09589350321523</v>
+        <v>26.09589350321522</v>
       </c>
       <c r="S14" t="n">
-        <v>9.466661464263103</v>
+        <v>9.466661464263099</v>
       </c>
       <c r="T14" t="n">
-        <v>1.818554495219384</v>
+        <v>1.818554495219383</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03323457672588249</v>
+        <v>0.03323457672588248</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.2222758277132579</v>
       </c>
       <c r="H15" t="n">
-        <v>2.146716546599097</v>
+        <v>2.146716546599096</v>
       </c>
       <c r="I15" t="n">
-        <v>7.652917752408224</v>
+        <v>7.652917752408221</v>
       </c>
       <c r="J15" t="n">
         <v>21.00019124899688</v>
       </c>
       <c r="K15" t="n">
-        <v>35.89267170578517</v>
+        <v>35.89267170578515</v>
       </c>
       <c r="L15" t="n">
-        <v>48.26212653923174</v>
+        <v>48.26212653923172</v>
       </c>
       <c r="M15" t="n">
-        <v>56.31962529383732</v>
+        <v>56.3196252938373</v>
       </c>
       <c r="N15" t="n">
-        <v>57.81023819108984</v>
+        <v>57.81023819108982</v>
       </c>
       <c r="O15" t="n">
-        <v>52.88507379807501</v>
+        <v>52.885073798075</v>
       </c>
       <c r="P15" t="n">
-        <v>42.44493415342028</v>
+        <v>42.44493415342027</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.37331442880114</v>
+        <v>28.37331442880113</v>
       </c>
       <c r="R15" t="n">
-        <v>13.80059919784597</v>
+        <v>13.80059919784596</v>
       </c>
       <c r="S15" t="n">
-        <v>4.128676010375644</v>
+        <v>4.128676010375642</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8959275687214209</v>
+        <v>0.8959275687214207</v>
       </c>
       <c r="U15" t="n">
         <v>0.0146234097179775</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1863485872258116</v>
+        <v>0.1863485872258115</v>
       </c>
       <c r="H16" t="n">
         <v>1.656808348244035</v>
       </c>
       <c r="I16" t="n">
-        <v>5.604010241299862</v>
+        <v>5.604010241299861</v>
       </c>
       <c r="J16" t="n">
-        <v>13.17484511686488</v>
+        <v>13.17484511686487</v>
       </c>
       <c r="K16" t="n">
-        <v>21.65031767950792</v>
+        <v>21.65031767950791</v>
       </c>
       <c r="L16" t="n">
-        <v>27.70495268628112</v>
+        <v>27.70495268628111</v>
       </c>
       <c r="M16" t="n">
         <v>29.2109880866788</v>
       </c>
       <c r="N16" t="n">
-        <v>28.51641607974626</v>
+        <v>28.51641607974625</v>
       </c>
       <c r="O16" t="n">
-        <v>26.33952576533563</v>
+        <v>26.33952576533562</v>
       </c>
       <c r="P16" t="n">
-        <v>22.53801458592906</v>
+        <v>22.53801458592905</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.60415306306319</v>
+        <v>15.60415306306318</v>
       </c>
       <c r="R16" t="n">
-        <v>8.378910112898762</v>
+        <v>8.37891011289876</v>
       </c>
       <c r="S16" t="n">
-        <v>3.247547651926188</v>
+        <v>3.247547651926187</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7962166908739219</v>
+        <v>0.7962166908739217</v>
       </c>
       <c r="U16" t="n">
         <v>0.01016446839413519</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4154322090735311</v>
+        <v>0.4154322090735313</v>
       </c>
       <c r="H41" t="n">
-        <v>4.254545111174301</v>
+        <v>4.254545111174304</v>
       </c>
       <c r="I41" t="n">
-        <v>16.01595024030732</v>
+        <v>16.01595024030733</v>
       </c>
       <c r="J41" t="n">
-        <v>35.25928945485465</v>
+        <v>35.25928945485466</v>
       </c>
       <c r="K41" t="n">
-        <v>52.84453486493722</v>
+        <v>52.84453486493725</v>
       </c>
       <c r="L41" t="n">
-        <v>65.55831833337132</v>
+        <v>65.55831833337135</v>
       </c>
       <c r="M41" t="n">
-        <v>72.94626088148271</v>
+        <v>72.94626088148276</v>
       </c>
       <c r="N41" t="n">
-        <v>74.12660764551291</v>
+        <v>74.12660764551293</v>
       </c>
       <c r="O41" t="n">
-        <v>69.99565361653796</v>
+        <v>69.99565361653801</v>
       </c>
       <c r="P41" t="n">
-        <v>59.73967095503516</v>
+        <v>59.73967095503519</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.86200496758931</v>
+        <v>44.86200496758934</v>
       </c>
       <c r="R41" t="n">
-        <v>26.09589350321522</v>
+        <v>26.09589350321524</v>
       </c>
       <c r="S41" t="n">
-        <v>9.466661464263099</v>
+        <v>9.466661464263105</v>
       </c>
       <c r="T41" t="n">
-        <v>1.818554495219383</v>
+        <v>1.818554495219384</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03323457672588248</v>
+        <v>0.0332345767258825</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2222758277132579</v>
+        <v>0.222275827713258</v>
       </c>
       <c r="H42" t="n">
-        <v>2.146716546599096</v>
+        <v>2.146716546599097</v>
       </c>
       <c r="I42" t="n">
-        <v>7.652917752408221</v>
+        <v>7.652917752408226</v>
       </c>
       <c r="J42" t="n">
-        <v>21.00019124899688</v>
+        <v>21.00019124899689</v>
       </c>
       <c r="K42" t="n">
-        <v>35.89267170578515</v>
+        <v>35.89267170578518</v>
       </c>
       <c r="L42" t="n">
-        <v>48.26212653923172</v>
+        <v>48.26212653923174</v>
       </c>
       <c r="M42" t="n">
-        <v>56.3196252938373</v>
+        <v>56.31962529383733</v>
       </c>
       <c r="N42" t="n">
-        <v>57.81023819108982</v>
+        <v>57.81023819108985</v>
       </c>
       <c r="O42" t="n">
-        <v>52.885073798075</v>
+        <v>52.88507379807503</v>
       </c>
       <c r="P42" t="n">
-        <v>42.44493415342027</v>
+        <v>42.4449341534203</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.37331442880113</v>
+        <v>28.37331442880115</v>
       </c>
       <c r="R42" t="n">
-        <v>13.80059919784596</v>
+        <v>13.80059919784597</v>
       </c>
       <c r="S42" t="n">
-        <v>4.128676010375642</v>
+        <v>4.128676010375645</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8959275687214207</v>
+        <v>0.8959275687214212</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146234097179775</v>
+        <v>0.01462340971797751</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1863485872258115</v>
+        <v>0.1863485872258116</v>
       </c>
       <c r="H43" t="n">
         <v>1.656808348244035</v>
       </c>
       <c r="I43" t="n">
-        <v>5.604010241299861</v>
+        <v>5.604010241299863</v>
       </c>
       <c r="J43" t="n">
-        <v>13.17484511686487</v>
+        <v>13.17484511686488</v>
       </c>
       <c r="K43" t="n">
-        <v>21.65031767950791</v>
+        <v>21.65031767950793</v>
       </c>
       <c r="L43" t="n">
-        <v>27.70495268628111</v>
+        <v>27.70495268628112</v>
       </c>
       <c r="M43" t="n">
-        <v>29.2109880866788</v>
+        <v>29.21098808667881</v>
       </c>
       <c r="N43" t="n">
-        <v>28.51641607974625</v>
+        <v>28.51641607974626</v>
       </c>
       <c r="O43" t="n">
-        <v>26.33952576533562</v>
+        <v>26.33952576533564</v>
       </c>
       <c r="P43" t="n">
-        <v>22.53801458592905</v>
+        <v>22.53801458592906</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.60415306306318</v>
+        <v>15.60415306306319</v>
       </c>
       <c r="R43" t="n">
-        <v>8.37891011289876</v>
+        <v>8.378910112898764</v>
       </c>
       <c r="S43" t="n">
-        <v>3.247547651926187</v>
+        <v>3.247547651926189</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7962166908739217</v>
+        <v>0.7962166908739221</v>
       </c>
       <c r="U43" t="n">
         <v>0.01016446839413519</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4154322090735311</v>
+        <v>0.4154322090735313</v>
       </c>
       <c r="H44" t="n">
-        <v>4.254545111174301</v>
+        <v>4.254545111174304</v>
       </c>
       <c r="I44" t="n">
-        <v>16.01595024030732</v>
+        <v>16.01595024030733</v>
       </c>
       <c r="J44" t="n">
-        <v>35.25928945485465</v>
+        <v>35.25928945485466</v>
       </c>
       <c r="K44" t="n">
-        <v>52.84453486493722</v>
+        <v>52.84453486493725</v>
       </c>
       <c r="L44" t="n">
-        <v>65.55831833337132</v>
+        <v>65.55831833337135</v>
       </c>
       <c r="M44" t="n">
-        <v>72.94626088148271</v>
+        <v>72.94626088148276</v>
       </c>
       <c r="N44" t="n">
-        <v>74.12660764551291</v>
+        <v>74.12660764551293</v>
       </c>
       <c r="O44" t="n">
-        <v>69.99565361653796</v>
+        <v>69.99565361653801</v>
       </c>
       <c r="P44" t="n">
-        <v>59.73967095503516</v>
+        <v>59.73967095503519</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.86200496758931</v>
+        <v>44.86200496758934</v>
       </c>
       <c r="R44" t="n">
-        <v>26.09589350321522</v>
+        <v>26.09589350321524</v>
       </c>
       <c r="S44" t="n">
-        <v>9.466661464263099</v>
+        <v>9.466661464263105</v>
       </c>
       <c r="T44" t="n">
-        <v>1.818554495219383</v>
+        <v>1.818554495219384</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03323457672588248</v>
+        <v>0.0332345767258825</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2222758277132579</v>
+        <v>0.222275827713258</v>
       </c>
       <c r="H45" t="n">
-        <v>2.146716546599096</v>
+        <v>2.146716546599097</v>
       </c>
       <c r="I45" t="n">
-        <v>7.652917752408221</v>
+        <v>7.652917752408226</v>
       </c>
       <c r="J45" t="n">
-        <v>21.00019124899688</v>
+        <v>21.00019124899689</v>
       </c>
       <c r="K45" t="n">
-        <v>35.89267170578515</v>
+        <v>35.89267170578518</v>
       </c>
       <c r="L45" t="n">
-        <v>48.26212653923172</v>
+        <v>48.26212653923174</v>
       </c>
       <c r="M45" t="n">
-        <v>56.3196252938373</v>
+        <v>56.31962529383733</v>
       </c>
       <c r="N45" t="n">
-        <v>57.81023819108982</v>
+        <v>57.81023819108985</v>
       </c>
       <c r="O45" t="n">
-        <v>52.885073798075</v>
+        <v>52.88507379807503</v>
       </c>
       <c r="P45" t="n">
-        <v>42.44493415342027</v>
+        <v>42.4449341534203</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.37331442880113</v>
+        <v>28.37331442880115</v>
       </c>
       <c r="R45" t="n">
-        <v>13.80059919784596</v>
+        <v>13.80059919784597</v>
       </c>
       <c r="S45" t="n">
-        <v>4.128676010375642</v>
+        <v>4.128676010375645</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8959275687214207</v>
+        <v>0.8959275687214212</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0146234097179775</v>
+        <v>0.01462340971797751</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1863485872258115</v>
+        <v>0.1863485872258116</v>
       </c>
       <c r="H46" t="n">
         <v>1.656808348244035</v>
       </c>
       <c r="I46" t="n">
-        <v>5.604010241299861</v>
+        <v>5.604010241299863</v>
       </c>
       <c r="J46" t="n">
-        <v>13.17484511686487</v>
+        <v>13.17484511686488</v>
       </c>
       <c r="K46" t="n">
-        <v>21.65031767950791</v>
+        <v>21.65031767950793</v>
       </c>
       <c r="L46" t="n">
-        <v>27.70495268628111</v>
+        <v>27.70495268628112</v>
       </c>
       <c r="M46" t="n">
-        <v>29.2109880866788</v>
+        <v>29.21098808667881</v>
       </c>
       <c r="N46" t="n">
-        <v>28.51641607974625</v>
+        <v>28.51641607974626</v>
       </c>
       <c r="O46" t="n">
-        <v>26.33952576533562</v>
+        <v>26.33952576533564</v>
       </c>
       <c r="P46" t="n">
-        <v>22.53801458592905</v>
+        <v>22.53801458592906</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.60415306306318</v>
+        <v>15.60415306306319</v>
       </c>
       <c r="R46" t="n">
-        <v>8.37891011289876</v>
+        <v>8.378910112898764</v>
       </c>
       <c r="S46" t="n">
-        <v>3.247547651926187</v>
+        <v>3.247547651926189</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7962166908739217</v>
+        <v>0.7962166908739221</v>
       </c>
       <c r="U46" t="n">
         <v>0.01016446839413519</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.2921151161345</v>
+        <v>83.07701885454813</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="L11" t="n">
-        <v>48.56775909867875</v>
+        <v>48.56775909867871</v>
       </c>
       <c r="M11" t="n">
-        <v>83.20862604756547</v>
+        <v>83.20862604756545</v>
       </c>
       <c r="N11" t="n">
-        <v>77.64347707663771</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="O11" t="n">
-        <v>36.03435314033914</v>
+        <v>36.03435314033911</v>
       </c>
       <c r="P11" t="n">
-        <v>37.63872742840365</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.5633998207125</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.09958974121815</v>
       </c>
       <c r="L12" t="n">
-        <v>119.5303269644268</v>
+        <v>119.5303269644267</v>
       </c>
       <c r="M12" t="n">
         <v>128.0303502936702</v>
       </c>
       <c r="N12" t="n">
-        <v>45.99739899008799</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="O12" t="n">
-        <v>128.0303502936702</v>
+        <v>6.897809248869926</v>
       </c>
       <c r="P12" t="n">
-        <v>85.36003118661665</v>
+        <v>85.36003118661664</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.63735601161418</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.37093789025968</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>82.87826804541432</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>54.85621165361779</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>128.0303502936702</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.44451065625553</v>
+        <v>67.44451065625555</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.2921151161345</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.56775909867876</v>
+        <v>90.03565401692822</v>
       </c>
       <c r="M14" t="n">
-        <v>83.2086260475655</v>
+        <v>83.20862604756547</v>
       </c>
       <c r="N14" t="n">
-        <v>77.64347707663772</v>
+        <v>77.64347707663771</v>
       </c>
       <c r="O14" t="n">
-        <v>36.03435314033916</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="P14" t="n">
-        <v>37.63872742840353</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.5633998207125</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.09958974121816</v>
       </c>
       <c r="L15" t="n">
         <v>119.5303269644268</v>
       </c>
       <c r="M15" t="n">
-        <v>45.99739899008799</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="N15" t="n">
-        <v>128.0303502936702</v>
+        <v>6.897809248869812</v>
       </c>
       <c r="O15" t="n">
         <v>128.0303502936702</v>
       </c>
       <c r="P15" t="n">
-        <v>85.36003118661668</v>
+        <v>85.36003118661665</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,43 +35781,43 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.87704158036098</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>49.15157230162262</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.65808134010834</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.40734033388668</v>
       </c>
       <c r="G16" t="n">
-        <v>25.63735601161418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.54457400613749</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.59879032365377</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.37093789025968</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>18.74314073766638</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>89.52173838015459</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="O16" t="n">
-        <v>128.0303502936702</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.09787173749569</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="L17" t="n">
         <v>48.56775909867875</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.45328473387877</v>
+        <v>5.433541777910309</v>
       </c>
       <c r="T17" t="n">
-        <v>23.32120029268239</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>68.62188560119377</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>119.5303269644268</v>
       </c>
       <c r="M18" t="n">
-        <v>6.897809248869841</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="N18" t="n">
-        <v>128.0303502936702</v>
+        <v>6.897809248869812</v>
       </c>
       <c r="O18" t="n">
         <v>128.0303502936702</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>45.60345013603065</v>
       </c>
       <c r="L20" t="n">
         <v>48.56775909867875</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>101.4190720301781</v>
+        <v>124.4375074953413</v>
       </c>
       <c r="S20" t="n">
-        <v>91.45328473387877</v>
+        <v>91.45328473387872</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.62188560119377</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.09958974121816</v>
+        <v>37.4973756608446</v>
       </c>
       <c r="L21" t="n">
-        <v>119.5303269644268</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>128.0303502936702</v>
       </c>
       <c r="N21" t="n">
-        <v>6.897809248869812</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="O21" t="n">
         <v>128.0303502936702</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.09787173749564</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36373,22 +36373,22 @@
         <v>36.03435314033914</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>128.0303502936702</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>55.36602033408482</v>
       </c>
       <c r="R23" t="n">
-        <v>101.4190720301781</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.45328473387877</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>68.62188560119377</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>39.09958974121816</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>119.5303269644268</v>
       </c>
       <c r="M24" t="n">
         <v>128.0303502936702</v>
       </c>
       <c r="N24" t="n">
-        <v>126.4281362132966</v>
+        <v>6.897809248869812</v>
       </c>
       <c r="O24" t="n">
         <v>128.0303502936702</v>
@@ -36598,7 +36598,7 @@
         <v>207.4050101672983</v>
       </c>
       <c r="L26" t="n">
-        <v>261.5916253298014</v>
+        <v>261.5916253298013</v>
       </c>
       <c r="M26" t="n">
         <v>296.2324922786881</v>
@@ -36607,7 +36607,7 @@
         <v>290.6673433077603</v>
       </c>
       <c r="O26" t="n">
-        <v>249.0582193714618</v>
+        <v>249.0582193714617</v>
       </c>
       <c r="P26" t="n">
         <v>199.1848452598497</v>
@@ -36616,7 +36616,7 @@
         <v>124.2530434995018</v>
       </c>
       <c r="R26" t="n">
-        <v>18.68964367878931</v>
+        <v>18.68964367878928</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.8412159804119</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.09698401267599</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,19 +36756,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>167.9352573315865</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.661520394731992</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0179689045902</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36966,13 +36966,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.56668525915029</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.84121598041193</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.34772501889765</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>59.67905842169628</v>
       </c>
       <c r="N31" t="n">
-        <v>40.2512067116937</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0974148903019</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.76964034184463</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.9817587949238</v>
+        <v>136.9817587949237</v>
       </c>
       <c r="K32" t="n">
-        <v>207.4050101672983</v>
+        <v>207.4050101672991</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5916253298014</v>
+        <v>261.5916253298013</v>
       </c>
       <c r="M32" t="n">
-        <v>296.2324922786881</v>
+        <v>296.232492278688</v>
       </c>
       <c r="N32" t="n">
-        <v>290.6673433077603</v>
+        <v>290.6673433077602</v>
       </c>
       <c r="O32" t="n">
-        <v>249.0582193714618</v>
+        <v>249.0582193714617</v>
       </c>
       <c r="P32" t="n">
-        <v>199.1848452598497</v>
+        <v>199.1848452598496</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.2530434995018</v>
+        <v>124.2530434995017</v>
       </c>
       <c r="R32" t="n">
-        <v>18.68964367878931</v>
+        <v>18.68964367878922</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.23421768492671</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.288434002443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>130.4841812827845</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8726786351088</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.13415433504484</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.76964034184463</v>
+        <v>9.769640341844545</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>9.475986136301916</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>174.1077370102821</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>244.5309883826566</v>
       </c>
       <c r="L35" t="n">
-        <v>48.56775909867875</v>
+        <v>298.7176035451596</v>
       </c>
       <c r="M35" t="n">
         <v>83.20862604756547</v>
       </c>
       <c r="N35" t="n">
-        <v>77.64347707663771</v>
+        <v>322.5368287551038</v>
       </c>
       <c r="O35" t="n">
-        <v>286.18419758682</v>
+        <v>272.30585533497</v>
       </c>
       <c r="P35" t="n">
-        <v>85.6486053372556</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.3790217148601</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>55.81562189414757</v>
       </c>
       <c r="S35" t="n">
-        <v>22.83139913268499</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>27.72210454171224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>75.22379881696563</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>26.40498546546387</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,10 +37503,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>28.23038903823837</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.5884243132634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.475986136301945</v>
       </c>
       <c r="J38" t="n">
-        <v>174.107737010282</v>
+        <v>174.1077370102821</v>
       </c>
       <c r="K38" t="n">
-        <v>244.5309883826565</v>
+        <v>244.5309883826566</v>
       </c>
       <c r="L38" t="n">
-        <v>48.56775909867875</v>
+        <v>195.5915098492736</v>
       </c>
       <c r="M38" t="n">
-        <v>83.20862604756547</v>
+        <v>322.5368287551037</v>
       </c>
       <c r="N38" t="n">
         <v>77.64347707663771</v>
       </c>
       <c r="O38" t="n">
-        <v>286.18419758682</v>
+        <v>36.03435314033914</v>
       </c>
       <c r="P38" t="n">
-        <v>236.3108234752079</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>20.19278971320987</v>
+        <v>161.3790217148601</v>
       </c>
       <c r="R38" t="n">
-        <v>55.81562189414751</v>
+        <v>55.8156218941476</v>
       </c>
       <c r="S38" t="n">
-        <v>22.83139913268494</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.72210454171218</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.26462807899657</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>80.26462807899675</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.6317508739802</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.0550022463547</v>
+        <v>130.5995012784069</v>
       </c>
       <c r="L41" t="n">
-        <v>48.56775909867875</v>
+        <v>289.2416174088578</v>
       </c>
       <c r="M41" t="n">
-        <v>83.20862604756547</v>
+        <v>323.8824843577445</v>
       </c>
       <c r="N41" t="n">
-        <v>105.5002914899428</v>
+        <v>318.3173353868167</v>
       </c>
       <c r="O41" t="n">
         <v>276.7082114505181</v>
       </c>
       <c r="P41" t="n">
-        <v>226.8348373389061</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.9030355785582</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.33963575784568</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.35541299638311</v>
+        <v>13.35541299638309</v>
       </c>
       <c r="T41" t="n">
-        <v>18.24611840541035</v>
+        <v>18.24611840541032</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.09958974121816</v>
+        <v>39.09958974121818</v>
       </c>
       <c r="L42" t="n">
         <v>119.5303269644268</v>
@@ -37874,7 +37874,7 @@
         <v>134.1404384671736</v>
       </c>
       <c r="P42" t="n">
-        <v>85.36003118661665</v>
+        <v>85.36003118661668</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.18818459812431</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.93842608149946</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.47405246926555</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.41963242090098</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.303926460295363</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.92899932916196</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>289.2416174088578</v>
       </c>
       <c r="M44" t="n">
-        <v>97.2264194895977</v>
+        <v>83.20862604756552</v>
       </c>
       <c r="N44" t="n">
         <v>318.3173353868167</v>
       </c>
       <c r="O44" t="n">
-        <v>36.03435314033914</v>
+        <v>50.05214658236522</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,13 +38038,13 @@
         <v>151.9030355785582</v>
       </c>
       <c r="R44" t="n">
-        <v>46.33963575784568</v>
+        <v>46.33963575784567</v>
       </c>
       <c r="S44" t="n">
-        <v>13.35541299638311</v>
+        <v>13.35541299638309</v>
       </c>
       <c r="T44" t="n">
-        <v>18.24611840541035</v>
+        <v>18.24611840541032</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.09958974121816</v>
+        <v>39.09958974121818</v>
       </c>
       <c r="L45" t="n">
         <v>119.5303269644268</v>
@@ -38111,7 +38111,7 @@
         <v>134.1404384671736</v>
       </c>
       <c r="P45" t="n">
-        <v>85.36003118661665</v>
+        <v>85.36003118661668</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>104.1266106796239</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.1266106796238</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
